--- a/data/nzd0180/nzd0180.xlsx
+++ b/data/nzd0180/nzd0180.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R387"/>
+  <dimension ref="A1:R394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21734,6 +21734,426 @@
         </is>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>352.8545454545454</v>
+      </c>
+      <c r="C388" t="n">
+        <v>361.15</v>
+      </c>
+      <c r="D388" t="n">
+        <v>378.0271428571429</v>
+      </c>
+      <c r="E388" t="n">
+        <v>381.4703225806452</v>
+      </c>
+      <c r="F388" t="n">
+        <v>382.6240740740741</v>
+      </c>
+      <c r="G388" t="n">
+        <v>384.0303225806452</v>
+      </c>
+      <c r="H388" t="n">
+        <v>385.515</v>
+      </c>
+      <c r="I388" t="n">
+        <v>386.1840740740741</v>
+      </c>
+      <c r="J388" t="n">
+        <v>377.8571428571428</v>
+      </c>
+      <c r="K388" t="n">
+        <v>385.3440740740741</v>
+      </c>
+      <c r="L388" t="n">
+        <v>380.7476923076923</v>
+      </c>
+      <c r="M388" t="n">
+        <v>374.3</v>
+      </c>
+      <c r="N388" t="n">
+        <v>365.0303225806452</v>
+      </c>
+      <c r="O388" t="n">
+        <v>367.0396969696969</v>
+      </c>
+      <c r="P388" t="n">
+        <v>370.2076923076923</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>373.3495238095238</v>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>366.7372727272728</v>
+      </c>
+      <c r="C389" t="n">
+        <v>374.54</v>
+      </c>
+      <c r="D389" t="n">
+        <v>376.1571428571429</v>
+      </c>
+      <c r="E389" t="n">
+        <v>381.418064516129</v>
+      </c>
+      <c r="F389" t="n">
+        <v>380.2837037037037</v>
+      </c>
+      <c r="G389" t="n">
+        <v>381.678064516129</v>
+      </c>
+      <c r="H389" t="n">
+        <v>380.285</v>
+      </c>
+      <c r="I389" t="n">
+        <v>385.0637037037037</v>
+      </c>
+      <c r="J389" t="n">
+        <v>383.2871428571429</v>
+      </c>
+      <c r="K389" t="n">
+        <v>380.6837037037037</v>
+      </c>
+      <c r="L389" t="n">
+        <v>374.8384615384616</v>
+      </c>
+      <c r="M389" t="n">
+        <v>368.12</v>
+      </c>
+      <c r="N389" t="n">
+        <v>361.9780645161291</v>
+      </c>
+      <c r="O389" t="n">
+        <v>365.9648484848485</v>
+      </c>
+      <c r="P389" t="n">
+        <v>368.0884615384616</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>371.4561904761905</v>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>347.8881818181818</v>
+      </c>
+      <c r="C390" t="n">
+        <v>356.07</v>
+      </c>
+      <c r="D390" t="n">
+        <v>376.7157142857143</v>
+      </c>
+      <c r="E390" t="n">
+        <v>379.7093548387097</v>
+      </c>
+      <c r="F390" t="n">
+        <v>374.5159259259259</v>
+      </c>
+      <c r="G390" t="n">
+        <v>378.9893548387097</v>
+      </c>
+      <c r="H390" t="n">
+        <v>378.5225</v>
+      </c>
+      <c r="I390" t="n">
+        <v>384.0559259259259</v>
+      </c>
+      <c r="J390" t="n">
+        <v>378.5157142857143</v>
+      </c>
+      <c r="K390" t="n">
+        <v>379.4059259259259</v>
+      </c>
+      <c r="L390" t="n">
+        <v>374.0769230769231</v>
+      </c>
+      <c r="M390" t="n">
+        <v>369.95</v>
+      </c>
+      <c r="N390" t="n">
+        <v>361.0693548387097</v>
+      </c>
+      <c r="O390" t="n">
+        <v>361.5221212121212</v>
+      </c>
+      <c r="P390" t="n">
+        <v>366.7569230769231</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>364.5276190476191</v>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>355.3818181818182</v>
+      </c>
+      <c r="C391" t="n">
+        <v>360.87</v>
+      </c>
+      <c r="D391" t="n">
+        <v>375.8314285714285</v>
+      </c>
+      <c r="E391" t="n">
+        <v>377.7296774193548</v>
+      </c>
+      <c r="F391" t="n">
+        <v>378.1985185185185</v>
+      </c>
+      <c r="G391" t="n">
+        <v>378.1896774193549</v>
+      </c>
+      <c r="H391" t="n">
+        <v>380.54</v>
+      </c>
+      <c r="I391" t="n">
+        <v>380.8385185185185</v>
+      </c>
+      <c r="J391" t="n">
+        <v>380.8114285714286</v>
+      </c>
+      <c r="K391" t="n">
+        <v>376.2785185185185</v>
+      </c>
+      <c r="L391" t="n">
+        <v>373.0415384615384</v>
+      </c>
+      <c r="M391" t="n">
+        <v>366.59</v>
+      </c>
+      <c r="N391" t="n">
+        <v>358.4596774193548</v>
+      </c>
+      <c r="O391" t="n">
+        <v>357.0578787878788</v>
+      </c>
+      <c r="P391" t="n">
+        <v>361.6915384615385</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>361.8052380952381</v>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>373.87</v>
+      </c>
+      <c r="C392" t="n">
+        <v>379.22</v>
+      </c>
+      <c r="D392" t="n">
+        <v>385.6828571428572</v>
+      </c>
+      <c r="E392" t="n">
+        <v>388.5987096774193</v>
+      </c>
+      <c r="F392" t="n">
+        <v>392.4892592592593</v>
+      </c>
+      <c r="G392" t="n">
+        <v>389.6187096774193</v>
+      </c>
+      <c r="H392" t="n">
+        <v>390.23</v>
+      </c>
+      <c r="I392" t="n">
+        <v>394.4092592592592</v>
+      </c>
+      <c r="J392" t="n">
+        <v>395.8628571428572</v>
+      </c>
+      <c r="K392" t="n">
+        <v>389.4692592592592</v>
+      </c>
+      <c r="L392" t="n">
+        <v>387.1546153846153</v>
+      </c>
+      <c r="M392" t="n">
+        <v>381.02</v>
+      </c>
+      <c r="N392" t="n">
+        <v>374.2487096774194</v>
+      </c>
+      <c r="O392" t="n">
+        <v>372.0566666666667</v>
+      </c>
+      <c r="P392" t="n">
+        <v>377.3646153846154</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>375.8904761904762</v>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>352.5381818181818</v>
+      </c>
+      <c r="C393" t="n">
+        <v>363.07</v>
+      </c>
+      <c r="D393" t="n">
+        <v>376.5942857142857</v>
+      </c>
+      <c r="E393" t="n">
+        <v>384.79</v>
+      </c>
+      <c r="F393" t="n">
+        <v>377.5562962962963</v>
+      </c>
+      <c r="G393" t="n">
+        <v>383.1</v>
+      </c>
+      <c r="H393" t="n">
+        <v>378.6775</v>
+      </c>
+      <c r="I393" t="n">
+        <v>384.6162962962963</v>
+      </c>
+      <c r="J393" t="n">
+        <v>382.1242857142857</v>
+      </c>
+      <c r="K393" t="n">
+        <v>381.1962962962963</v>
+      </c>
+      <c r="L393" t="n">
+        <v>376.1346153846154</v>
+      </c>
+      <c r="M393" t="n">
+        <v>372.32</v>
+      </c>
+      <c r="N393" t="n">
+        <v>360.76</v>
+      </c>
+      <c r="O393" t="n">
+        <v>359.9687878787879</v>
+      </c>
+      <c r="P393" t="n">
+        <v>363.7446153846154</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>367.362380952381</v>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>353.9109090909091</v>
+      </c>
+      <c r="C394" t="n">
+        <v>360.26</v>
+      </c>
+      <c r="D394" t="n">
+        <v>367.0314285714285</v>
+      </c>
+      <c r="E394" t="n">
+        <v>368.9045161290322</v>
+      </c>
+      <c r="F394" t="n">
+        <v>372.7040740740741</v>
+      </c>
+      <c r="G394" t="n">
+        <v>374.4345161290323</v>
+      </c>
+      <c r="H394" t="n">
+        <v>373.8725</v>
+      </c>
+      <c r="I394" t="n">
+        <v>372.3240740740741</v>
+      </c>
+      <c r="J394" t="n">
+        <v>373.4314285714286</v>
+      </c>
+      <c r="K394" t="n">
+        <v>374.6940740740741</v>
+      </c>
+      <c r="L394" t="n">
+        <v>366.6969230769231</v>
+      </c>
+      <c r="M394" t="n">
+        <v>360.37</v>
+      </c>
+      <c r="N394" t="n">
+        <v>357.3145161290323</v>
+      </c>
+      <c r="O394" t="n">
+        <v>352.7306060606061</v>
+      </c>
+      <c r="P394" t="n">
+        <v>359.9069230769231</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>354.0752380952381</v>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21745,7 +22165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25883,6 +26303,76 @@
       </c>
       <c r="B413" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -26051,28 +26541,28 @@
         <v>0.1384</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4312666445189988</v>
+        <v>0.396520486051567</v>
       </c>
       <c r="J2" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07212782988928634</v>
+        <v>0.06291829919517178</v>
       </c>
       <c r="M2" t="n">
-        <v>8.9866260680253</v>
+        <v>9.018936080640657</v>
       </c>
       <c r="N2" t="n">
-        <v>122.2849442683047</v>
+        <v>122.5583291081969</v>
       </c>
       <c r="O2" t="n">
-        <v>11.0582523152759</v>
+        <v>11.07060653750267</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8496878358819</v>
+        <v>355.194176843998</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26128,28 +26618,28 @@
         <v>0.1533</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5971717663565255</v>
+        <v>0.5733525111790582</v>
       </c>
       <c r="J3" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K3" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1338877347215075</v>
+        <v>0.1279729657970855</v>
       </c>
       <c r="M3" t="n">
-        <v>8.574331494322692</v>
+        <v>8.572174818646973</v>
       </c>
       <c r="N3" t="n">
-        <v>117.8726147115575</v>
+        <v>117.2838464477055</v>
       </c>
       <c r="O3" t="n">
-        <v>10.85691552475</v>
+        <v>10.82976668482315</v>
       </c>
       <c r="P3" t="n">
-        <v>355.506786224214</v>
+        <v>355.7418026365514</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26199,28 +26689,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.4215883004719462</v>
+        <v>0.4148016768534322</v>
       </c>
       <c r="J4" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09516848491278063</v>
+        <v>0.09571626761144381</v>
       </c>
       <c r="M4" t="n">
-        <v>7.164622925857424</v>
+        <v>7.091347404781638</v>
       </c>
       <c r="N4" t="n">
-        <v>86.984020564799</v>
+        <v>85.7316943267985</v>
       </c>
       <c r="O4" t="n">
-        <v>9.32652242611355</v>
+        <v>9.25914112252311</v>
       </c>
       <c r="P4" t="n">
-        <v>367.5353186414174</v>
+        <v>367.6018687240624</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26276,28 +26766,28 @@
         <v>0.1963</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4743539236458567</v>
+        <v>0.4809357371878477</v>
       </c>
       <c r="J5" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K5" t="n">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09950894374993857</v>
+        <v>0.1056608723332471</v>
       </c>
       <c r="M5" t="n">
-        <v>7.889422155304637</v>
+        <v>7.822619600618268</v>
       </c>
       <c r="N5" t="n">
-        <v>105.5538828726368</v>
+        <v>104.0620066600016</v>
       </c>
       <c r="O5" t="n">
-        <v>10.27394193445908</v>
+        <v>10.20107870080422</v>
       </c>
       <c r="P5" t="n">
-        <v>366.8121185138731</v>
+        <v>366.7485447416581</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26353,28 +26843,28 @@
         <v>0.1622</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4562102407844504</v>
+        <v>0.4614092631250905</v>
       </c>
       <c r="J6" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K6" t="n">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1067928017543815</v>
+        <v>0.1124428054142177</v>
       </c>
       <c r="M6" t="n">
-        <v>7.452656973575692</v>
+        <v>7.391395159493661</v>
       </c>
       <c r="N6" t="n">
-        <v>91.28266526367172</v>
+        <v>90.1702223121831</v>
       </c>
       <c r="O6" t="n">
-        <v>9.554196212328472</v>
+        <v>9.495800246013134</v>
       </c>
       <c r="P6" t="n">
-        <v>366.9490456365816</v>
+        <v>366.8986752441121</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26430,28 +26920,28 @@
         <v>0.1854</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4530578804181633</v>
+        <v>0.4675566415393472</v>
       </c>
       <c r="J7" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K7" t="n">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1129085793925058</v>
+        <v>0.1231351431311067</v>
       </c>
       <c r="M7" t="n">
-        <v>7.197061634867183</v>
+        <v>7.134336065544255</v>
       </c>
       <c r="N7" t="n">
-        <v>84.11881168364761</v>
+        <v>83.05512500927695</v>
       </c>
       <c r="O7" t="n">
-        <v>9.171630808293997</v>
+        <v>9.113458454904864</v>
       </c>
       <c r="P7" t="n">
-        <v>366.3661781404388</v>
+        <v>366.2247600070634</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26507,28 +26997,28 @@
         <v>0.1985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3750993560705437</v>
+        <v>0.4017233136266959</v>
       </c>
       <c r="J8" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K8" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07839117481473945</v>
+        <v>0.0912285989543038</v>
       </c>
       <c r="M8" t="n">
-        <v>7.124531406459534</v>
+        <v>7.110258969499045</v>
       </c>
       <c r="N8" t="n">
-        <v>85.5315121554824</v>
+        <v>85.08244990064787</v>
       </c>
       <c r="O8" t="n">
-        <v>9.24832482969118</v>
+        <v>9.224014847161071</v>
       </c>
       <c r="P8" t="n">
-        <v>365.0902094388392</v>
+        <v>364.8296127887148</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26584,28 +27074,28 @@
         <v>0.1491</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2815026106475545</v>
+        <v>0.3222727206290494</v>
       </c>
       <c r="J9" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K9" t="n">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03966682671210753</v>
+        <v>0.05219182538133493</v>
       </c>
       <c r="M9" t="n">
-        <v>7.895951169152746</v>
+        <v>7.928714245527503</v>
       </c>
       <c r="N9" t="n">
-        <v>96.99879584478848</v>
+        <v>97.66462910906058</v>
       </c>
       <c r="O9" t="n">
-        <v>9.84879666988757</v>
+        <v>9.882541632042871</v>
       </c>
       <c r="P9" t="n">
-        <v>366.8968487624059</v>
+        <v>366.4931740744681</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -26661,28 +27151,28 @@
         <v>0.1555</v>
       </c>
       <c r="I10" t="n">
-        <v>0.231534440960318</v>
+        <v>0.2625496415301204</v>
       </c>
       <c r="J10" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K10" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02834186413493511</v>
+        <v>0.03704452045703832</v>
       </c>
       <c r="M10" t="n">
-        <v>7.641599008441667</v>
+        <v>7.641046073820023</v>
       </c>
       <c r="N10" t="n">
-        <v>92.85617017437164</v>
+        <v>92.84848296770558</v>
       </c>
       <c r="O10" t="n">
-        <v>9.63619064643138</v>
+        <v>9.635791766518492</v>
       </c>
       <c r="P10" t="n">
-        <v>368.5310976042322</v>
+        <v>368.2255707141421</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -26738,28 +27228,28 @@
         <v>0.1551</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1968019422883661</v>
+        <v>0.228492546370997</v>
       </c>
       <c r="J11" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K11" t="n">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02244906405019098</v>
+        <v>0.03080877417270311</v>
       </c>
       <c r="M11" t="n">
-        <v>7.380923528195503</v>
+        <v>7.374379479920477</v>
       </c>
       <c r="N11" t="n">
-        <v>86.24856699857344</v>
+        <v>86.06066350226442</v>
       </c>
       <c r="O11" t="n">
-        <v>9.287010659979531</v>
+        <v>9.276888675750314</v>
       </c>
       <c r="P11" t="n">
-        <v>368.3732938704941</v>
+        <v>368.0628620079497</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -26815,28 +27305,28 @@
         <v>0.1518</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1956069281158823</v>
+        <v>0.2291184679836438</v>
       </c>
       <c r="J12" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K12" t="n">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01973070275890809</v>
+        <v>0.02753571899547669</v>
       </c>
       <c r="M12" t="n">
-        <v>7.81646959053006</v>
+        <v>7.827778998536442</v>
       </c>
       <c r="N12" t="n">
-        <v>96.30085435080827</v>
+        <v>96.27263903153512</v>
       </c>
       <c r="O12" t="n">
-        <v>9.813299870624981</v>
+        <v>9.811862159220089</v>
       </c>
       <c r="P12" t="n">
-        <v>363.1722569697559</v>
+        <v>362.842002008318</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -26892,28 +27382,28 @@
         <v>0.1478</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2015111016712458</v>
+        <v>0.2291150424396051</v>
       </c>
       <c r="J13" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K13" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02142946817838898</v>
+        <v>0.02831329374149227</v>
       </c>
       <c r="M13" t="n">
-        <v>7.575254332326376</v>
+        <v>7.566621483522817</v>
       </c>
       <c r="N13" t="n">
-        <v>92.61055561142503</v>
+        <v>92.2527820538227</v>
       </c>
       <c r="O13" t="n">
-        <v>9.623437827067052</v>
+        <v>9.604831182994458</v>
       </c>
       <c r="P13" t="n">
-        <v>358.7895882920807</v>
+        <v>358.5148633636081</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -26969,28 +27459,28 @@
         <v>0.194</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1391813778316067</v>
+        <v>0.165792594959622</v>
       </c>
       <c r="J14" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K14" t="n">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01021174805837533</v>
+        <v>0.01488085572660658</v>
       </c>
       <c r="M14" t="n">
-        <v>7.731804952718581</v>
+        <v>7.691922547183035</v>
       </c>
       <c r="N14" t="n">
-        <v>95.0135175590801</v>
+        <v>94.37846530684739</v>
       </c>
       <c r="O14" t="n">
-        <v>9.747487756292905</v>
+        <v>9.714857966375391</v>
       </c>
       <c r="P14" t="n">
-        <v>352.8642225047017</v>
+        <v>352.6012614273755</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -27046,28 +27536,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2119815383218773</v>
+        <v>0.2369282451668191</v>
       </c>
       <c r="J15" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K15" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02219869871048408</v>
+        <v>0.02842582051935805</v>
       </c>
       <c r="M15" t="n">
-        <v>8.02101545136148</v>
+        <v>7.98854520625224</v>
       </c>
       <c r="N15" t="n">
-        <v>100.6132424820828</v>
+        <v>99.93118066047118</v>
       </c>
       <c r="O15" t="n">
-        <v>10.03061525939874</v>
+        <v>9.996558440807075</v>
       </c>
       <c r="P15" t="n">
-        <v>351.1075723669994</v>
+        <v>350.8608507695911</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -27123,28 +27613,28 @@
         <v>0.1614</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1695032246050941</v>
+        <v>0.2058248487164677</v>
       </c>
       <c r="J16" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K16" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01286247033796195</v>
+        <v>0.0193433561795574</v>
       </c>
       <c r="M16" t="n">
-        <v>8.274591223153186</v>
+        <v>8.254137339362396</v>
       </c>
       <c r="N16" t="n">
-        <v>112.6260450056798</v>
+        <v>112.3218437711008</v>
       </c>
       <c r="O16" t="n">
-        <v>10.61254187297651</v>
+        <v>10.59820002505618</v>
       </c>
       <c r="P16" t="n">
-        <v>353.9590543013483</v>
+        <v>353.5989573658098</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -27200,28 +27690,28 @@
         <v>0.1281</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09633833112316258</v>
+        <v>0.14119222777233</v>
       </c>
       <c r="J17" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K17" t="n">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003431600991662398</v>
+        <v>0.007486164544515006</v>
       </c>
       <c r="M17" t="n">
-        <v>9.195888492974618</v>
+        <v>9.227321004700295</v>
       </c>
       <c r="N17" t="n">
-        <v>139.1038110813357</v>
+        <v>139.5279669502621</v>
       </c>
       <c r="O17" t="n">
-        <v>11.79422787135028</v>
+        <v>11.81219568709654</v>
       </c>
       <c r="P17" t="n">
-        <v>353.6284781715657</v>
+        <v>353.1854840414681</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -27258,7 +27748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R387"/>
+  <dimension ref="A1:R394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58962,6 +59452,650 @@
         </is>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>-36.83578047420717,175.80220776269795</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>-36.83610694492371,175.80301141588342</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>-36.83636770876002,175.8038657327238</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>-36.836731325423706,175.80464073824595</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>-36.837113909327144,175.80540520783498</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>-36.837511579803014,175.80615894029066</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>-36.83791289337413,175.80690559747018</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>-36.838317914427684,175.80764250098795</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>-36.83877318727001,175.80833756446458</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>-36.83909466565277,175.8091408618976</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>-36.83951116235768,175.8098781564163</t>
+        </is>
+      </c>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>-36.83994994213007,175.81059732775265</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>-36.840410624069975,175.81130045952867</t>
+        </is>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>-36.84083202544207,175.81203112202462</t>
+        </is>
+      </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>-36.84126835444768,175.81274386084405</t>
+        </is>
+      </c>
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>-36.841677605526286,175.8134790652088</t>
+        </is>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>-36.835674183679615,175.80228972370034</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>-36.8360044265509,175.80309046747703</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>-36.83638202615835,175.80385469272213</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>-36.8367317255316,175.8046404297292</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>-36.837131675171506,175.80539108854686</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>-36.837529223618624,175.80614434407687</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>-36.83795199901579,175.80687291422933</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>-36.83832637175148,175.80763565026143</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>-36.83873150997825,175.80836941430462</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>-36.83913069503467,175.80911405851867</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>-36.83955665724694,175.80984377917918</t>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>-36.83999731957115,175.8105609644112</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>-36.840433437331306,175.81128136825924</t>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>-36.84083971635162,175.81202380483606</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>-36.841283535480216,175.8127294618471</t>
+        </is>
+      </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t>-36.84169140071481,175.81346658933924</t>
+        </is>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>-36.835818498237785,175.80217844217034</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>-36.836145839111566,175.80298142463496</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>-36.83637774953297,175.80385799038538</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>-36.836744808071614,175.80463034199147</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>-36.83717545859529,175.8053562919262</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>-36.83754939108833,175.80612766010802</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>-36.837965177540504,175.80686190003232</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>-36.83833397914888,175.80762948800339</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>-36.83876813248705,175.80834142733835</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>-36.839140573549834,175.80910670957877</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>-36.83956252029505,175.80983934888928</t>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>-36.83998329032989,175.81057173220134</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>-36.84044022923073,175.8112756844581</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>-36.840871505584666,175.8119935603038</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>-36.841293073906755,175.81272041477936</t>
+        </is>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>-36.84174188360064,175.81342093439662</t>
+        </is>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>-36.83576112461571,175.80222268325574</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>-36.83610908869802,175.80300976282325</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>-36.83638451994497,175.80385276978785</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>-36.83675996524419,175.8046186545328</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>-36.83714750389376,175.80537850876746</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>-36.83755538930718,175.80612269795176</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>-36.837950092335554,175.80687450777245</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>-36.83835826634335,175.80760981451658</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>-36.838750512017214,175.80835489292684</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>-36.83916475157194,175.8090887227743</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>-36.83957049167134,175.809833325484</t>
+        </is>
+      </c>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>-36.84000904893616,175.81055196182962</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>-36.840459734542264,175.8112593614313</t>
+        </is>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>-36.840903448759164,175.81196316927898</t>
+        </is>
+      </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>-36.841329359596635,175.81268599827087</t>
+        </is>
+      </c>
+      <c r="Q391" t="inlineStr">
+        <is>
+          <t>-36.84176171938052,175.81340299559648</t>
+        </is>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>-36.83561957325671,175.8023318338903</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>-36.83596859487594,175.80311809711168</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-36.83630909382517,175.803910930061</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-36.83667674773602,175.80468282218678</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>-36.83703902229898,175.80546472372595</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>-36.83746966242684,175.80619361728134</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>-36.837877638472506,175.8069350623525</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>-36.838255825079465,175.8076927954665</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>-36.83863498661425,175.8084431774327</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>-36.83906277378992,175.8091645872236</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>-36.83946183574915,175.80991542895777</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>-36.839898424901676,175.8106368684238</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>-36.84034172376113,175.81135811864593</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>-36.84079612729805,175.81206527576188</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>-36.841217086078174,175.81279248812288</t>
+        </is>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>-36.84165909165979,175.81349580847152</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>-36.835782896386135,175.80220589494414</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-36.836092244756536,175.80302275115068</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-36.83637867923413,175.8038572735021</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-36.83670590869147,175.80466033667096</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>-36.83715237902753,175.80537463428374</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>-36.83751855796615,175.80615316746088</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>-36.837964018578084,175.80686286865688</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>-36.83832974908927,175.80763291449983</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>-36.83874043534469,175.8083625935314</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>-36.83912673217515,175.80911700661466</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>-36.83954667822028,175.80985131962055</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>-36.83996512131126,175.81058567736648</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>-36.840442541417936,175.81127374950393</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>-36.84088262021432,175.8119829857483</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>-36.84131465245932,175.81269994780567</t>
+        </is>
+      </c>
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>-36.84172122898949,175.8134396137078</t>
+        </is>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>-36.83577238635656,175.8022139992773</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-36.8361137590634,175.80300616151328</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-36.83645189592454,175.80380081678146</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-36.83682753406502,175.80456655320793</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-36.83718921243085,175.80534536113615</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>-36.837583556011374,175.8060993964244</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>-36.837999946409944,175.806832841282</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>-36.838422539187334,175.80755775116933</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>-36.83880715628584,175.8083116052699</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>-36.83917700092901,175.80907961008066</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>-36.83961933855395,175.8097964153186</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>-36.8400567330153,175.8105153630717</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>-36.84046829373273,175.81125219866664</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>-36.84093441186228,175.81193371067286</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>-36.84134214361892,175.81267387278112</t>
+        </is>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>-36.841818041602046,175.81335205964632</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0180/nzd0180.xlsx
+++ b/data/nzd0180/nzd0180.xlsx
@@ -26386,7 +26386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26477,35 +26477,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26564,27 +26569,28 @@
       <c r="P2" t="n">
         <v>355.194176843998</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.80012450175812 -36.838482023266124, 175.80555338156137 -36.83144146004691)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.8001245017581</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.83848202326612</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.8055533815614</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.83144146004691</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.8028389416597</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.83496174165651</v>
       </c>
     </row>
@@ -26641,27 +26647,28 @@
       <c r="P3" t="n">
         <v>355.7418026365514</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.8008791886467 -36.838872014491535, 175.80630803766613 -36.83183144290856)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.8008791886467</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.83887201449154</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.8063080376661</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.83183144290856</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.8035936131564</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.83535172870005</v>
       </c>
     </row>
@@ -26712,27 +26719,28 @@
       <c r="P4" t="n">
         <v>367.6018687240624</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.8016338755358 -36.83926200372836, 175.8070626937698 -36.83222142378208)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.8016338755358</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.83926200372836</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.8070626937698</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.83222142378208</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.8043482846528</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.83574171375522</v>
       </c>
     </row>
@@ -26789,27 +26797,28 @@
       <c r="P5" t="n">
         <v>366.7485447416581</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.80238856242548 -36.8396519909766, 175.80781734987238 -36.83261140266747)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.8023885624255</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.8396519909766</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.8078173498724</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.83261140266747</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.8051029561489</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.83613169682204</v>
       </c>
     </row>
@@ -26866,27 +26875,28 @@
       <c r="P6" t="n">
         <v>366.8986752441121</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.8030967792111 -36.84001840458977, 175.80864447959348 -36.83303778766516)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.8030967792111</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.84001840458977</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.8086444795935</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.83303778766516</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.8058706294023</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.83652809612747</v>
       </c>
     </row>
@@ -26943,27 +26953,28 @@
       <c r="P7" t="n">
         <v>366.2247600070634</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.80377587126148 -36.84039209353602, 175.80948211695565 -36.83349429658213)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.8037758712615</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.84039209353602</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.8094821169556</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.83349429658213</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.8066289941086</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.83694319505908</v>
       </c>
     </row>
@@ -27020,27 +27031,28 @@
       <c r="P8" t="n">
         <v>364.8296127887148</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.80449635526006 -36.84079543674636, 175.81024308473633 -36.83391932852596)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.8044963552601</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.84079543674636</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.8102430847363</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.83391932852596</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.8073697199982</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.83735738263616</v>
       </c>
     </row>
@@ -27097,27 +27109,28 @@
       <c r="P9" t="n">
         <v>366.4931740744681</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.80528101456136 -36.841233076348786, 175.81090394971633 -36.83429136168678)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.8052810145614</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.84123307634879</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.8109039497163</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.83429136168678</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.8080924821388</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.83776221901778</v>
       </c>
     </row>
@@ -27174,27 +27187,28 @@
       <c r="P10" t="n">
         <v>368.2255707141421</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.80612114845297 -36.84167336488659, 175.81151474739391 -36.83461541288077)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.806121148453</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.84167336488659</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.8115147473939</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.83461541288077</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.8088179479234</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.83814438888368</v>
       </c>
     </row>
@@ -27251,27 +27265,28 @@
       <c r="P11" t="n">
         <v>368.0628620079497</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.80692453409225 -36.842073748032135, 175.81221303847366 -36.834964761486866)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.8069245340922</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.84207374803213</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.8122130384737</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.83496476148687</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.809568786283</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.8385192547595</v>
       </c>
     </row>
@@ -27328,27 +27343,28 @@
       <c r="P12" t="n">
         <v>362.842002008318</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.8076630571333 -36.84244250344521, 175.81301247658268 -36.83536294164523)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.8076630571333</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.84244250344521</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.8130124765827</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.83536294164523</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.810337766858</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.83890272254522</v>
       </c>
     </row>
@@ -27405,27 +27421,28 @@
       <c r="P13" t="n">
         <v>358.5148633636081</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.8083948542256 -36.84281940320654, 175.81380544581344 -36.83576985454932)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.8083948542256</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.84281940320654</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.8138054458134</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.83576985454932</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.8111001500195</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.83929462887793</v>
       </c>
     </row>
@@ -27482,27 +27499,28 @@
       <c r="P14" t="n">
         <v>352.6012614273755</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.80901718835526 -36.84313892364834, 175.8147690083847 -36.83626558984974)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.8090171883553</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.84313892364834</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.8147690083847</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.83626558984974</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.81189309837</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.83970225674904</v>
       </c>
     </row>
@@ -27559,27 +27577,28 @@
       <c r="P15" t="n">
         <v>350.8608507695911</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.80953236139248 -36.84345829722255, 175.8157931071344 -36.8368776451784)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.8095323613925</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.84345829722255</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.8157931071344</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.8368776451784</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.8126627342634</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.84016797120047</v>
       </c>
     </row>
@@ -27636,27 +27655,28 @@
       <c r="P16" t="n">
         <v>353.5989573658098</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.81022841978609 -36.84392030042106, 175.81647700163145 -36.83733220821045)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.8102284197861</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.84392030042106</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.8164770016315</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.83733220821045</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.8133527107088</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.84062625431575</v>
       </c>
     </row>
@@ -27713,27 +27733,28 @@
       <c r="P17" t="n">
         <v>353.1854840414681</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.81101884255116 -36.844397879270566, 175.81707861443473 -36.837697153405294)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.8110188425512</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.84439787927057</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.8170786144347</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.83769715340529</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.8140487284929</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.84104751633793</v>
       </c>
     </row>

--- a/data/nzd0180/nzd0180.xlsx
+++ b/data/nzd0180/nzd0180.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R394"/>
+  <dimension ref="A1:R399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22154,6 +22154,298 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>370.7263636363636</v>
+      </c>
+      <c r="C395" t="n">
+        <v>375.93</v>
+      </c>
+      <c r="D395" t="n">
+        <v>378.3271428571429</v>
+      </c>
+      <c r="E395" t="n">
+        <v>379.8129032258065</v>
+      </c>
+      <c r="F395" t="n">
+        <v>375.3892592592592</v>
+      </c>
+      <c r="G395" t="n">
+        <v>373.3729032258065</v>
+      </c>
+      <c r="H395" t="n">
+        <v>372.9275</v>
+      </c>
+      <c r="I395" t="n">
+        <v>380.6792592592593</v>
+      </c>
+      <c r="J395" t="n">
+        <v>381.3971428571429</v>
+      </c>
+      <c r="K395" t="n">
+        <v>381.2892592592592</v>
+      </c>
+      <c r="L395" t="n">
+        <v>375.9038461538461</v>
+      </c>
+      <c r="M395" t="n">
+        <v>367.12</v>
+      </c>
+      <c r="N395" t="n">
+        <v>358.2029032258064</v>
+      </c>
+      <c r="O395" t="n">
+        <v>360.1475757575757</v>
+      </c>
+      <c r="P395" t="n">
+        <v>362.5038461538462</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>367.4561904761905</v>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>379.6736363636364</v>
+      </c>
+      <c r="C396" t="n">
+        <v>383.93</v>
+      </c>
+      <c r="D396" t="n">
+        <v>384.3042857142857</v>
+      </c>
+      <c r="E396" t="n">
+        <v>387.2464516129032</v>
+      </c>
+      <c r="F396" t="n">
+        <v>384.0303703703704</v>
+      </c>
+      <c r="G396" t="n">
+        <v>385.0264516129033</v>
+      </c>
+      <c r="H396" t="n">
+        <v>382.4675</v>
+      </c>
+      <c r="I396" t="n">
+        <v>387.7903703703704</v>
+      </c>
+      <c r="J396" t="n">
+        <v>388.3642857142857</v>
+      </c>
+      <c r="K396" t="n">
+        <v>388.6403703703704</v>
+      </c>
+      <c r="L396" t="n">
+        <v>382.3684615384615</v>
+      </c>
+      <c r="M396" t="n">
+        <v>379.0100000000001</v>
+      </c>
+      <c r="N396" t="n">
+        <v>366.5364516129033</v>
+      </c>
+      <c r="O396" t="n">
+        <v>369.1357575757576</v>
+      </c>
+      <c r="P396" t="n">
+        <v>368.0184615384616</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>373.8090476190476</v>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>326.1754545454546</v>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="n">
+        <v>378.4990322580645</v>
+      </c>
+      <c r="F397" t="n">
+        <v>378.5355555555556</v>
+      </c>
+      <c r="G397" t="n">
+        <v>379.6090322580645</v>
+      </c>
+      <c r="H397" t="n">
+        <v>379.28</v>
+      </c>
+      <c r="I397" t="n">
+        <v>380.8155555555555</v>
+      </c>
+      <c r="J397" t="n">
+        <v>380.9842857142857</v>
+      </c>
+      <c r="K397" t="n">
+        <v>379.2955555555556</v>
+      </c>
+      <c r="L397" t="n">
+        <v>373.2746153846153</v>
+      </c>
+      <c r="M397" t="n">
+        <v>368.92</v>
+      </c>
+      <c r="N397" t="n">
+        <v>358.3490322580645</v>
+      </c>
+      <c r="O397" t="n">
+        <v>360.6836363636364</v>
+      </c>
+      <c r="P397" t="n">
+        <v>362.2946153846154</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>367.9857142857143</v>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>362.0081818181818</v>
+      </c>
+      <c r="C398" t="n">
+        <v>374.88</v>
+      </c>
+      <c r="D398" t="n">
+        <v>379.1342857142857</v>
+      </c>
+      <c r="E398" t="n">
+        <v>381.57</v>
+      </c>
+      <c r="F398" t="n">
+        <v>376.0062962962963</v>
+      </c>
+      <c r="G398" t="n">
+        <v>381.84</v>
+      </c>
+      <c r="H398" t="n">
+        <v>377.9175</v>
+      </c>
+      <c r="I398" t="n">
+        <v>380.2662962962963</v>
+      </c>
+      <c r="J398" t="n">
+        <v>374.4242857142857</v>
+      </c>
+      <c r="K398" t="n">
+        <v>379.9362962962963</v>
+      </c>
+      <c r="L398" t="n">
+        <v>372.8846153846154</v>
+      </c>
+      <c r="M398" t="n">
+        <v>364.27</v>
+      </c>
+      <c r="N398" t="n">
+        <v>354.52</v>
+      </c>
+      <c r="O398" t="n">
+        <v>356.8387878787879</v>
+      </c>
+      <c r="P398" t="n">
+        <v>362.0646153846154</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>359.4623809523809</v>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>351.5863636363636</v>
+      </c>
+      <c r="C399" t="n">
+        <v>346.02</v>
+      </c>
+      <c r="D399" t="n">
+        <v>347.4757142857143</v>
+      </c>
+      <c r="E399" t="n">
+        <v>356.1512903225807</v>
+      </c>
+      <c r="F399" t="n">
+        <v>357.4633333333333</v>
+      </c>
+      <c r="G399" t="n">
+        <v>351.0412903225807</v>
+      </c>
+      <c r="H399" t="n">
+        <v>363.565</v>
+      </c>
+      <c r="I399" t="n">
+        <v>361.1733333333333</v>
+      </c>
+      <c r="J399" t="n">
+        <v>363.0357142857143</v>
+      </c>
+      <c r="K399" t="n">
+        <v>361.2233333333333</v>
+      </c>
+      <c r="L399" t="n">
+        <v>359.0646153846154</v>
+      </c>
+      <c r="M399" t="n">
+        <v>351.54</v>
+      </c>
+      <c r="N399" t="n">
+        <v>346.7412903225807</v>
+      </c>
+      <c r="O399" t="n">
+        <v>347.4409090909091</v>
+      </c>
+      <c r="P399" t="inlineStr"/>
+      <c r="Q399" t="inlineStr"/>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22165,7 +22457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B420"/>
+  <dimension ref="A1:B425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26373,6 +26665,56 @@
       </c>
       <c r="B420" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -26546,28 +26888,28 @@
         <v>0.1384</v>
       </c>
       <c r="I2" t="n">
-        <v>0.396520486051567</v>
+        <v>0.3747910550777265</v>
       </c>
       <c r="J2" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K2" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06291829919517178</v>
+        <v>0.05570678703170517</v>
       </c>
       <c r="M2" t="n">
-        <v>9.018936080640657</v>
+        <v>9.111870137031765</v>
       </c>
       <c r="N2" t="n">
-        <v>122.5583291081969</v>
+        <v>126.6650692529109</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07060653750267</v>
+        <v>11.25455771023059</v>
       </c>
       <c r="P2" t="n">
-        <v>355.194176843998</v>
+        <v>355.4126822230799</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26624,28 +26966,28 @@
         <v>0.1533</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5733525111790582</v>
+        <v>0.5727909352187404</v>
       </c>
       <c r="J3" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K3" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1279729657970855</v>
+        <v>0.1282177972634244</v>
       </c>
       <c r="M3" t="n">
-        <v>8.572174818646973</v>
+        <v>8.613895864135408</v>
       </c>
       <c r="N3" t="n">
-        <v>117.2838464477055</v>
+        <v>118.3860871340061</v>
       </c>
       <c r="O3" t="n">
-        <v>10.82976668482315</v>
+        <v>10.88053707929926</v>
       </c>
       <c r="P3" t="n">
-        <v>355.7418026365514</v>
+        <v>355.7480757232099</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26696,28 +27038,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.4148016768534322</v>
+        <v>0.4008357838601997</v>
       </c>
       <c r="J4" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K4" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09571626761144381</v>
+        <v>0.08926306914928794</v>
       </c>
       <c r="M4" t="n">
-        <v>7.091347404781638</v>
+        <v>7.121624165814153</v>
       </c>
       <c r="N4" t="n">
-        <v>85.7316943267985</v>
+        <v>87.62781377844057</v>
       </c>
       <c r="O4" t="n">
-        <v>9.25914112252311</v>
+        <v>9.360972907686495</v>
       </c>
       <c r="P4" t="n">
-        <v>367.6018687240624</v>
+        <v>367.7407145718801</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26774,28 +27116,28 @@
         <v>0.1963</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4809357371878477</v>
+        <v>0.4739216741009842</v>
       </c>
       <c r="J5" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K5" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1056608723332471</v>
+        <v>0.1043013289469369</v>
       </c>
       <c r="M5" t="n">
-        <v>7.822619600618268</v>
+        <v>7.810384601992687</v>
       </c>
       <c r="N5" t="n">
-        <v>104.0620066600016</v>
+        <v>104.2943928916412</v>
       </c>
       <c r="O5" t="n">
-        <v>10.20107870080422</v>
+        <v>10.21246262620535</v>
       </c>
       <c r="P5" t="n">
-        <v>366.7485447416581</v>
+        <v>366.8177065085104</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26852,28 +27194,28 @@
         <v>0.1622</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4614092631250905</v>
+        <v>0.4489199139067875</v>
       </c>
       <c r="J6" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K6" t="n">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1124428054142177</v>
+        <v>0.1084671871367486</v>
       </c>
       <c r="M6" t="n">
-        <v>7.391395159493661</v>
+        <v>7.372788551942168</v>
       </c>
       <c r="N6" t="n">
-        <v>90.1702223121831</v>
+        <v>90.29512039739868</v>
       </c>
       <c r="O6" t="n">
-        <v>9.495800246013134</v>
+        <v>9.502374461017556</v>
       </c>
       <c r="P6" t="n">
-        <v>366.8986752441121</v>
+        <v>367.0217588513495</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26930,28 +27272,28 @@
         <v>0.1854</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4675566415393472</v>
+        <v>0.4563282880676882</v>
       </c>
       <c r="J7" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K7" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1231351431311067</v>
+        <v>0.1181405881298552</v>
       </c>
       <c r="M7" t="n">
-        <v>7.134336065544255</v>
+        <v>7.165416549644676</v>
       </c>
       <c r="N7" t="n">
-        <v>83.05512500927695</v>
+        <v>84.22812437404528</v>
       </c>
       <c r="O7" t="n">
-        <v>9.113458454904864</v>
+        <v>9.177588156702461</v>
       </c>
       <c r="P7" t="n">
-        <v>366.2247600070634</v>
+        <v>366.3360667263166</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27008,28 +27350,28 @@
         <v>0.1985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4017233136266959</v>
+        <v>0.4021233025809784</v>
       </c>
       <c r="J8" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K8" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0912285989543038</v>
+        <v>0.09333715006899734</v>
       </c>
       <c r="M8" t="n">
-        <v>7.110258969499045</v>
+        <v>7.088256996190648</v>
       </c>
       <c r="N8" t="n">
-        <v>85.08244990064787</v>
+        <v>84.47428641697451</v>
       </c>
       <c r="O8" t="n">
-        <v>9.224014847161071</v>
+        <v>9.190989414474075</v>
       </c>
       <c r="P8" t="n">
-        <v>364.8296127887148</v>
+        <v>364.8258373726952</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27086,28 +27428,28 @@
         <v>0.1491</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3222727206290494</v>
+        <v>0.3320440328912075</v>
       </c>
       <c r="J9" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K9" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05219182538133493</v>
+        <v>0.05614088263424399</v>
       </c>
       <c r="M9" t="n">
-        <v>7.928714245527503</v>
+        <v>7.936964178689312</v>
       </c>
       <c r="N9" t="n">
-        <v>97.66462910906058</v>
+        <v>97.57214735856708</v>
       </c>
       <c r="O9" t="n">
-        <v>9.882541632042871</v>
+        <v>9.877861476988178</v>
       </c>
       <c r="P9" t="n">
-        <v>366.4931740744681</v>
+        <v>366.3957084161507</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27164,28 +27506,28 @@
         <v>0.1555</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2625496415301204</v>
+        <v>0.2704879676572113</v>
       </c>
       <c r="J10" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K10" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03704452045703832</v>
+        <v>0.03996557974244075</v>
       </c>
       <c r="M10" t="n">
-        <v>7.641046073820023</v>
+        <v>7.642322191992591</v>
       </c>
       <c r="N10" t="n">
-        <v>92.84848296770558</v>
+        <v>92.65904361567344</v>
       </c>
       <c r="O10" t="n">
-        <v>9.635791766518492</v>
+        <v>9.625956763650741</v>
       </c>
       <c r="P10" t="n">
-        <v>368.2255707141421</v>
+        <v>368.1469539901225</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27242,28 +27584,28 @@
         <v>0.1551</v>
       </c>
       <c r="I11" t="n">
-        <v>0.228492546370997</v>
+        <v>0.2404876685086828</v>
       </c>
       <c r="J11" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K11" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03080877417270311</v>
+        <v>0.03449596980656655</v>
       </c>
       <c r="M11" t="n">
-        <v>7.374379479920477</v>
+        <v>7.396716994698381</v>
       </c>
       <c r="N11" t="n">
-        <v>86.06066350226442</v>
+        <v>86.25006153589841</v>
       </c>
       <c r="O11" t="n">
-        <v>9.276888675750314</v>
+        <v>9.287091123484167</v>
       </c>
       <c r="P11" t="n">
-        <v>368.0628620079497</v>
+        <v>367.9444236754617</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27320,28 +27662,28 @@
         <v>0.1518</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2291184679836438</v>
+        <v>0.2407957250789241</v>
       </c>
       <c r="J12" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K12" t="n">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02753571899547669</v>
+        <v>0.03093428139150767</v>
       </c>
       <c r="M12" t="n">
-        <v>7.827778998536442</v>
+        <v>7.827975691765214</v>
       </c>
       <c r="N12" t="n">
-        <v>96.27263903153512</v>
+        <v>95.9377769932222</v>
       </c>
       <c r="O12" t="n">
-        <v>9.811862159220089</v>
+        <v>9.794783151924406</v>
       </c>
       <c r="P12" t="n">
-        <v>362.842002008318</v>
+        <v>362.7259668558773</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27398,28 +27740,28 @@
         <v>0.1478</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2291150424396051</v>
+        <v>0.2344081775903381</v>
       </c>
       <c r="J13" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K13" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02831329374149227</v>
+        <v>0.03014437787871305</v>
       </c>
       <c r="M13" t="n">
-        <v>7.566621483522817</v>
+        <v>7.557619661691584</v>
       </c>
       <c r="N13" t="n">
-        <v>92.2527820538227</v>
+        <v>92.09354369740348</v>
       </c>
       <c r="O13" t="n">
-        <v>9.604831182994458</v>
+        <v>9.596538110037571</v>
       </c>
       <c r="P13" t="n">
-        <v>358.5148633636081</v>
+        <v>358.4619622485425</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27476,28 +27818,28 @@
         <v>0.194</v>
       </c>
       <c r="I14" t="n">
-        <v>0.165792594959622</v>
+        <v>0.1658482647636906</v>
       </c>
       <c r="J14" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K14" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01488085572660658</v>
+        <v>0.01526607358181742</v>
       </c>
       <c r="M14" t="n">
-        <v>7.691922547183035</v>
+        <v>7.652164683226553</v>
       </c>
       <c r="N14" t="n">
-        <v>94.37846530684739</v>
+        <v>93.59142335448891</v>
       </c>
       <c r="O14" t="n">
-        <v>9.714857966375391</v>
+        <v>9.674266036991588</v>
       </c>
       <c r="P14" t="n">
-        <v>352.6012614273755</v>
+        <v>352.6010005488842</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27554,28 +27896,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2369282451668191</v>
+        <v>0.242636036981819</v>
       </c>
       <c r="J15" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K15" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02842582051935805</v>
+        <v>0.03046691695560022</v>
       </c>
       <c r="M15" t="n">
-        <v>7.98854520625224</v>
+        <v>7.953763402494997</v>
       </c>
       <c r="N15" t="n">
-        <v>99.93118066047118</v>
+        <v>99.21810941047623</v>
       </c>
       <c r="O15" t="n">
-        <v>9.996558440807075</v>
+        <v>9.960828751187133</v>
       </c>
       <c r="P15" t="n">
-        <v>350.8608507695911</v>
+        <v>350.8040206786727</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27632,28 +27974,28 @@
         <v>0.1614</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2058248487164677</v>
+        <v>0.2174341552481233</v>
       </c>
       <c r="J16" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K16" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0193433561795574</v>
+        <v>0.02200907932723639</v>
       </c>
       <c r="M16" t="n">
-        <v>8.254137339362396</v>
+        <v>8.203594244313241</v>
       </c>
       <c r="N16" t="n">
-        <v>112.3218437711008</v>
+        <v>111.3065118486674</v>
       </c>
       <c r="O16" t="n">
-        <v>10.59820002505618</v>
+        <v>10.55019013329463</v>
       </c>
       <c r="P16" t="n">
-        <v>353.5989573658098</v>
+        <v>353.4825702471892</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27710,28 +28052,28 @@
         <v>0.1281</v>
       </c>
       <c r="I17" t="n">
-        <v>0.14119222777233</v>
+        <v>0.1653599039035656</v>
       </c>
       <c r="J17" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K17" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007486164544515006</v>
+        <v>0.010375548277063</v>
       </c>
       <c r="M17" t="n">
-        <v>9.227321004700295</v>
+        <v>9.2330984158475</v>
       </c>
       <c r="N17" t="n">
-        <v>139.5279669502621</v>
+        <v>139.4156655785189</v>
       </c>
       <c r="O17" t="n">
-        <v>11.81219568709654</v>
+        <v>11.80744111052513</v>
       </c>
       <c r="P17" t="n">
-        <v>353.1854840414681</v>
+        <v>352.9440884477954</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27769,7 +28111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R394"/>
+  <dimension ref="A1:R399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60117,6 +60459,450 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>-36.83564364193563,175.80231327449945</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-36.83599378423777,175.80309867371727</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-36.83636541185111,175.8038675038467</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-36.83674401526527,175.8046309533119</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-36.8371688290888,175.80536156069073</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>-36.83759151895401,175.80609280890081</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>-36.83800701234071,175.80682693579084</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>-36.83835946854123,175.8076088406934</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>-36.83874601643974,175.80835832845253</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>-36.83912601347736,175.80911754127655</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>-36.8395484549016,175.80984997710888</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>-36.84000498582285,175.81055508037127</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>-36.8404616537298,175.81125775535799</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>-36.84088134092611,175.8119842028744</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>-36.84132354066199,175.81269151745798</t>
+        </is>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>-36.841720545475525,175.8134402318538</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-36.835575138765975,175.80236609735124</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-36.83593253350516,175.803145903834</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-36.836319648670845,175.8039027913404</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-36.83668710114756,175.8046748388498</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-36.83710323407546,175.80541369191752</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>-36.83750410803863,175.80616512146096</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>-36.83793568007547,175.80688655308094</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>-36.83830578900122,175.80765232300217</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>-36.83869254099109,175.8083991944192</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>-36.83906918194155,175.80915982000664</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>-36.83949868413024,175.8098875853131</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>-36.839913834073855,175.81062504153203</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>-36.84039936692281,175.81130988006322</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>-36.840817027408455,175.81204539126017</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>-36.84128403692262,175.81272898623584</t>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>-36.841674257347805,175.81348209317952</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-36.8359847375838,175.80205025375793</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-36.83675407476743,175.80462319658793</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-36.83714494543251,175.80538054208915</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>-36.83754474301301,175.80613150532827</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>-36.83795951357894,175.80686663379404</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>-36.83835843968352,175.8076096741049</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>-36.83874918527362,175.80835590682594</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>-36.839141426824455,175.8091060748007</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>-36.83956869722337,175.80983468142156</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>-36.83999118656961,175.81056567164234</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>-36.84046056152885,175.81125866936705</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>-36.84087750522976,175.81198785218962</t>
+        </is>
+      </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>-36.84132503947852,175.8126900958493</t>
+        </is>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>-36.841716687264636,175.81344372108396</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>-36.83571039109289,175.80226180406476</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>-36.836001823395215,175.803092474759</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-36.836359232072276,175.80387226901018</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-36.83673056225493,175.80464132671307</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-36.837164145137116,175.80536528323546</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>-36.8375280089731,175.8061453489179</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>-36.83796970123247,175.80685811927165</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>-36.83836258586827,175.80760631554708</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>-36.838799535735596,175.80831742891297</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>-36.83913647325026,175.8091097599216</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>-36.839571699814535,175.80983241257553</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>-36.84002683463884,175.81053831085114</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>-36.84048918056695,175.81123471949667</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>-36.840905016429026,175.8119616777829</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>-36.841326687074606,175.8126885331249</t>
+        </is>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>-36.84177878987659,175.8133875576153</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-36.83579018380372,175.80220027558073</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-36.83622278527105,175.8029220914676</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-36.836601621468816,175.80368536440074</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-36.836925177620124,175.80449126151268</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-36.83730490543253,175.80525341453966</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>-36.83775902377022,175.80595423639946</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>-36.83807701738182,175.80676842762676</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>-36.838506712567046,175.80748956750932</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>-36.83888694727,175.80825062872609</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>-36.83928114334661,175.80900213502943</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>-36.83967809930341,175.80975201386846</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>-36.840124425992045,175.81046340688098</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>-36.840547320359015,175.8111860650894</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>-36.84097226142831,175.81189770017687</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr"/>
+      <c r="Q399" t="inlineStr"/>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0180/nzd0180.xlsx
+++ b/data/nzd0180/nzd0180.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R399"/>
+  <dimension ref="A1:R401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22446,6 +22446,126 @@
         </is>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>366.9072727272728</v>
+      </c>
+      <c r="C400" t="n">
+        <v>362.69</v>
+      </c>
+      <c r="D400" t="n">
+        <v>378.4857142857143</v>
+      </c>
+      <c r="E400" t="n">
+        <v>376.9841935483871</v>
+      </c>
+      <c r="F400" t="n">
+        <v>381.2414814814815</v>
+      </c>
+      <c r="G400" t="n">
+        <v>379.5041935483871</v>
+      </c>
+      <c r="H400" t="n">
+        <v>383.845</v>
+      </c>
+      <c r="I400" t="n">
+        <v>381.7614814814814</v>
+      </c>
+      <c r="J400" t="n">
+        <v>382.6257142857143</v>
+      </c>
+      <c r="K400" t="n">
+        <v>380.2714814814815</v>
+      </c>
+      <c r="L400" t="n">
+        <v>380.5223076923077</v>
+      </c>
+      <c r="M400" t="n">
+        <v>373.33</v>
+      </c>
+      <c r="N400" t="n">
+        <v>363.3241935483871</v>
+      </c>
+      <c r="O400" t="n">
+        <v>361.5148484848485</v>
+      </c>
+      <c r="P400" t="n">
+        <v>360.3823076923077</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>343.597619047619</v>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>351.1909090909091</v>
+      </c>
+      <c r="C401" t="n">
+        <v>356.15</v>
+      </c>
+      <c r="D401" t="n">
+        <v>367.4771428571429</v>
+      </c>
+      <c r="E401" t="n">
+        <v>370.3864516129032</v>
+      </c>
+      <c r="F401" t="n">
+        <v>371.1051851851852</v>
+      </c>
+      <c r="G401" t="n">
+        <v>375.4764516129033</v>
+      </c>
+      <c r="H401" t="n">
+        <v>371.7975</v>
+      </c>
+      <c r="I401" t="n">
+        <v>374.2551851851852</v>
+      </c>
+      <c r="J401" t="n">
+        <v>374.4271428571428</v>
+      </c>
+      <c r="K401" t="n">
+        <v>373.2351851851852</v>
+      </c>
+      <c r="L401" t="n">
+        <v>369.06</v>
+      </c>
+      <c r="M401" t="n">
+        <v>366.3</v>
+      </c>
+      <c r="N401" t="n">
+        <v>357.7864516129032</v>
+      </c>
+      <c r="O401" t="n">
+        <v>360.2406060606061</v>
+      </c>
+      <c r="P401" t="n">
+        <v>368.22</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>361.6595238095238</v>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22457,7 +22577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B425"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26715,6 +26835,26 @@
       </c>
       <c r="B425" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -26888,28 +27028,28 @@
         <v>0.1384</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3747910550777265</v>
+        <v>0.3676574273901065</v>
       </c>
       <c r="J2" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05570678703170517</v>
+        <v>0.05412251409413282</v>
       </c>
       <c r="M2" t="n">
-        <v>9.111870137031765</v>
+        <v>9.104603321824248</v>
       </c>
       <c r="N2" t="n">
-        <v>126.6650692529109</v>
+        <v>126.4854069757398</v>
       </c>
       <c r="O2" t="n">
-        <v>11.25455771023059</v>
+        <v>11.24657312143303</v>
       </c>
       <c r="P2" t="n">
-        <v>355.4126822230799</v>
+        <v>355.4849434397733</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26966,28 +27106,28 @@
         <v>0.1533</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5727909352187404</v>
+        <v>0.5595183190687089</v>
       </c>
       <c r="J3" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1282177972634244</v>
+        <v>0.1237346612134959</v>
       </c>
       <c r="M3" t="n">
-        <v>8.613895864135408</v>
+        <v>8.621209410691272</v>
       </c>
       <c r="N3" t="n">
-        <v>118.3860871340061</v>
+        <v>118.4598326440948</v>
       </c>
       <c r="O3" t="n">
-        <v>10.88053707929926</v>
+        <v>10.88392542440892</v>
       </c>
       <c r="P3" t="n">
-        <v>355.7480757232099</v>
+        <v>355.8817469870366</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27038,28 +27178,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.4008357838601997</v>
+        <v>0.3948699712080077</v>
       </c>
       <c r="J4" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08926306914928794</v>
+        <v>0.08756727586863444</v>
       </c>
       <c r="M4" t="n">
-        <v>7.121624165814153</v>
+        <v>7.113016635716243</v>
       </c>
       <c r="N4" t="n">
-        <v>87.62781377844057</v>
+        <v>87.43710852127637</v>
       </c>
       <c r="O4" t="n">
-        <v>9.360972907686495</v>
+        <v>9.35078117171375</v>
       </c>
       <c r="P4" t="n">
-        <v>367.7407145718801</v>
+        <v>367.80032311447</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27116,28 +27256,28 @@
         <v>0.1963</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4739216741009842</v>
+        <v>0.4677000519399508</v>
       </c>
       <c r="J5" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1043013289469369</v>
+        <v>0.1028272857208282</v>
       </c>
       <c r="M5" t="n">
-        <v>7.810384601992687</v>
+        <v>7.795032349704746</v>
       </c>
       <c r="N5" t="n">
-        <v>104.2943928916412</v>
+        <v>103.9058319120677</v>
       </c>
       <c r="O5" t="n">
-        <v>10.21246262620535</v>
+        <v>10.19342101122424</v>
       </c>
       <c r="P5" t="n">
-        <v>366.8177065085104</v>
+        <v>366.8791953495246</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27194,28 +27334,28 @@
         <v>0.1622</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4489199139067875</v>
+        <v>0.4462111365216511</v>
       </c>
       <c r="J6" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1084671871367486</v>
+        <v>0.108276661521049</v>
       </c>
       <c r="M6" t="n">
-        <v>7.372788551942168</v>
+        <v>7.358233577106372</v>
       </c>
       <c r="N6" t="n">
-        <v>90.29512039739868</v>
+        <v>89.95030418861941</v>
       </c>
       <c r="O6" t="n">
-        <v>9.502374461017556</v>
+        <v>9.484213419605203</v>
       </c>
       <c r="P6" t="n">
-        <v>367.0217588513495</v>
+        <v>367.0486515186194</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27272,28 +27412,28 @@
         <v>0.1854</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4563282880676882</v>
+        <v>0.4556811843383468</v>
       </c>
       <c r="J7" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1181405881298552</v>
+        <v>0.1190679439722933</v>
       </c>
       <c r="M7" t="n">
-        <v>7.165416549644676</v>
+        <v>7.136080762518123</v>
       </c>
       <c r="N7" t="n">
-        <v>84.22812437404528</v>
+        <v>83.76669173757676</v>
       </c>
       <c r="O7" t="n">
-        <v>9.177588156702461</v>
+        <v>9.152414530471004</v>
       </c>
       <c r="P7" t="n">
-        <v>366.3360667263166</v>
+        <v>366.342529148552</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27350,28 +27490,28 @@
         <v>0.1985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4021233025809784</v>
+        <v>0.4051518743296109</v>
       </c>
       <c r="J8" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09333715006899734</v>
+        <v>0.09540909597310987</v>
       </c>
       <c r="M8" t="n">
-        <v>7.088256996190648</v>
+        <v>7.081380653889545</v>
       </c>
       <c r="N8" t="n">
-        <v>84.47428641697451</v>
+        <v>84.23412174447532</v>
       </c>
       <c r="O8" t="n">
-        <v>9.190989414474075</v>
+        <v>9.177914890892993</v>
       </c>
       <c r="P8" t="n">
-        <v>364.8258373726952</v>
+        <v>364.7955888837434</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27428,28 +27568,28 @@
         <v>0.1491</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3320440328912075</v>
+        <v>0.3355768252637112</v>
       </c>
       <c r="J9" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05614088263424399</v>
+        <v>0.05786633026035992</v>
       </c>
       <c r="M9" t="n">
-        <v>7.936964178689312</v>
+        <v>7.911362575299516</v>
       </c>
       <c r="N9" t="n">
-        <v>97.57214735856708</v>
+        <v>97.14597818369612</v>
       </c>
       <c r="O9" t="n">
-        <v>9.877861476988178</v>
+        <v>9.856265935114379</v>
       </c>
       <c r="P9" t="n">
-        <v>366.3957084161507</v>
+        <v>366.3600241311632</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27506,28 +27646,28 @@
         <v>0.1555</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2704879676572113</v>
+        <v>0.2745297736288048</v>
       </c>
       <c r="J10" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03996557974244075</v>
+        <v>0.04155420065889326</v>
       </c>
       <c r="M10" t="n">
-        <v>7.642322191992591</v>
+        <v>7.621894388993518</v>
       </c>
       <c r="N10" t="n">
-        <v>92.65904361567344</v>
+        <v>92.28190529855473</v>
       </c>
       <c r="O10" t="n">
-        <v>9.625956763650741</v>
+        <v>9.606347136063464</v>
       </c>
       <c r="P10" t="n">
-        <v>368.1469539901225</v>
+        <v>368.1063660092101</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27584,28 +27724,28 @@
         <v>0.1551</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2404876685086828</v>
+        <v>0.2435168390121351</v>
       </c>
       <c r="J11" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03449596980656655</v>
+        <v>0.0357228223576046</v>
       </c>
       <c r="M11" t="n">
-        <v>7.396716994698381</v>
+        <v>7.372988122732399</v>
       </c>
       <c r="N11" t="n">
-        <v>86.25006153589841</v>
+        <v>85.86122418575923</v>
       </c>
       <c r="O11" t="n">
-        <v>9.287091123484167</v>
+        <v>9.266133184115111</v>
       </c>
       <c r="P11" t="n">
-        <v>367.9444236754617</v>
+        <v>367.9141532760874</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27662,28 +27802,28 @@
         <v>0.1518</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2407957250789241</v>
+        <v>0.2476715981445518</v>
       </c>
       <c r="J12" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03093428139150767</v>
+        <v>0.03293865533235796</v>
       </c>
       <c r="M12" t="n">
-        <v>7.827975691765214</v>
+        <v>7.816045186918866</v>
       </c>
       <c r="N12" t="n">
-        <v>95.9377769932222</v>
+        <v>95.7672183428329</v>
       </c>
       <c r="O12" t="n">
-        <v>9.794783151924406</v>
+        <v>9.78607267205966</v>
       </c>
       <c r="P12" t="n">
-        <v>362.7259668558773</v>
+        <v>362.6568346736119</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27740,28 +27880,28 @@
         <v>0.1478</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2344081775903381</v>
+        <v>0.2407177208240262</v>
       </c>
       <c r="J13" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03014437787871305</v>
+        <v>0.03204983598950029</v>
       </c>
       <c r="M13" t="n">
-        <v>7.557619661691584</v>
+        <v>7.543472277009376</v>
       </c>
       <c r="N13" t="n">
-        <v>92.09354369740348</v>
+        <v>91.78941124901614</v>
       </c>
       <c r="O13" t="n">
-        <v>9.596538110037571</v>
+        <v>9.580679059910949</v>
       </c>
       <c r="P13" t="n">
-        <v>358.4619622485425</v>
+        <v>358.3979027343717</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27818,28 +27958,28 @@
         <v>0.194</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1658482647636906</v>
+        <v>0.1701852543709842</v>
       </c>
       <c r="J14" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01526607358181742</v>
+        <v>0.01624156990439152</v>
       </c>
       <c r="M14" t="n">
-        <v>7.652164683226553</v>
+        <v>7.626825008463266</v>
       </c>
       <c r="N14" t="n">
-        <v>93.59142335448891</v>
+        <v>93.16473352490445</v>
       </c>
       <c r="O14" t="n">
-        <v>9.674266036991588</v>
+        <v>9.652188017486214</v>
       </c>
       <c r="P14" t="n">
-        <v>352.6010005488842</v>
+        <v>352.5572785782755</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27896,28 +28036,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.242636036981819</v>
+        <v>0.2471907963922916</v>
       </c>
       <c r="J15" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03046691695560022</v>
+        <v>0.03194678401290141</v>
       </c>
       <c r="M15" t="n">
-        <v>7.953763402494997</v>
+        <v>7.927670381218931</v>
       </c>
       <c r="N15" t="n">
-        <v>99.21810941047623</v>
+        <v>98.71146123820647</v>
       </c>
       <c r="O15" t="n">
-        <v>9.960828751187133</v>
+        <v>9.935364172399845</v>
       </c>
       <c r="P15" t="n">
-        <v>350.8040206786727</v>
+        <v>350.7579954155025</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27974,28 +28114,28 @@
         <v>0.1614</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2174341552481233</v>
+        <v>0.22367557175108</v>
       </c>
       <c r="J16" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02200907932723639</v>
+        <v>0.02349751920272114</v>
       </c>
       <c r="M16" t="n">
-        <v>8.203594244313241</v>
+        <v>8.180545405092666</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3065118486674</v>
+        <v>110.8875743997265</v>
       </c>
       <c r="O16" t="n">
-        <v>10.55019013329463</v>
+        <v>10.53031691829484</v>
       </c>
       <c r="P16" t="n">
-        <v>353.4825702471892</v>
+        <v>353.4193395162346</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28052,28 +28192,28 @@
         <v>0.1281</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1653599039035656</v>
+        <v>0.1600497660762998</v>
       </c>
       <c r="J17" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L17" t="n">
-        <v>0.010375548277063</v>
+        <v>0.009803168702891885</v>
       </c>
       <c r="M17" t="n">
-        <v>9.2330984158475</v>
+        <v>9.232937523129264</v>
       </c>
       <c r="N17" t="n">
-        <v>139.4156655785189</v>
+        <v>139.1915798407869</v>
       </c>
       <c r="O17" t="n">
-        <v>11.80744111052513</v>
+        <v>11.79794811993962</v>
       </c>
       <c r="P17" t="n">
-        <v>352.9440884477954</v>
+        <v>352.9976363276808</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28111,7 +28251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R399"/>
+  <dimension ref="A1:R401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42753,7 +42893,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-36.83645048496673,175.8038019047593</t>
+          <t>-36.836450484966726,175.8038019047593</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -60903,6 +61043,190 @@
         </is>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>-36.835672882105825,175.80229072734687</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-36.8360951541647,175.80302050771272</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-36.836364197770685,175.80386844001163</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-36.836765672955494,175.8046142534045</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-36.83712440464255,175.8053968667529</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>-36.83754552938703,175.80613085478348</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>-36.83792538026248,175.80689516133373</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>-36.83835129918713,175.8076154581611</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>-36.83873658669163,175.80836553467583</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>-36.839133881929605,175.80911168768696</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>-36.83951289758337,175.8098768452311</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>-36.83995737839572,175.8105916202408</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>-36.84042337606134,175.811289788031</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>-36.84087155762352,175.81199351079357</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>-36.84133873821999,175.8126771027611</t>
+        </is>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>-36.841894383457756,175.81328301845755</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-36.83579321152729,175.80219794088788</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-36.836145226604714,175.80298189693832</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-36.836448483375385,175.80380344816962</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-36.83681618779975,175.80457530215367</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-36.8372013496558,175.80533571513533</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>-36.837575740664775,175.8061058618443</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>-36.8380154615486,175.80681987419686</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>-36.83840796184301,175.80756955935865</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>-36.83879951380595,175.8083174456717</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>-36.839188279614206,175.8090712194984</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>-36.83960114534179,175.80981016266006</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>-36.84001127214908,175.81055025545766</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>-36.84046476638189,175.81125515053293</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>-36.840880675262596,175.81198483619258</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>-36.84128259320926,175.8127303555781</t>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>-36.84176278108215,175.81340203542956</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0180/nzd0180.xlsx
+++ b/data/nzd0180/nzd0180.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R401"/>
+  <dimension ref="A1:R402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22566,6 +22566,66 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>373.3845454545455</v>
+      </c>
+      <c r="C402" t="n">
+        <v>377.76</v>
+      </c>
+      <c r="D402" t="n">
+        <v>381.5814285714285</v>
+      </c>
+      <c r="E402" t="n">
+        <v>384.4951612903226</v>
+      </c>
+      <c r="F402" t="n">
+        <v>383.9218518518518</v>
+      </c>
+      <c r="G402" t="n">
+        <v>386.8351612903226</v>
+      </c>
+      <c r="H402" t="n">
+        <v>381.3225</v>
+      </c>
+      <c r="I402" t="n">
+        <v>384.9618518518519</v>
+      </c>
+      <c r="J402" t="n">
+        <v>387.5014285714286</v>
+      </c>
+      <c r="K402" t="n">
+        <v>387.4018518518519</v>
+      </c>
+      <c r="L402" t="n">
+        <v>376.8753846153846</v>
+      </c>
+      <c r="M402" t="n">
+        <v>373.79</v>
+      </c>
+      <c r="N402" t="n">
+        <v>371.7751612903226</v>
+      </c>
+      <c r="O402" t="n">
+        <v>374.449696969697</v>
+      </c>
+      <c r="P402" t="n">
+        <v>374.1353846153846</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>379.1252380952381</v>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22577,7 +22637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B427"/>
+  <dimension ref="A1:B428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26855,6 +26915,16 @@
       </c>
       <c r="B427" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -27028,28 +27098,28 @@
         <v>0.1384</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3676574273901065</v>
+        <v>0.3726440715994405</v>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K2" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05412251409413282</v>
+        <v>0.0557576870202412</v>
       </c>
       <c r="M2" t="n">
-        <v>9.104603321824248</v>
+        <v>9.102082807380926</v>
       </c>
       <c r="N2" t="n">
-        <v>126.4854069757398</v>
+        <v>126.3154570137599</v>
       </c>
       <c r="O2" t="n">
-        <v>11.24657312143303</v>
+        <v>11.23901494855131</v>
       </c>
       <c r="P2" t="n">
-        <v>355.4849434397733</v>
+        <v>355.4343325525079</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27106,28 +27176,28 @@
         <v>0.1533</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5595183190687089</v>
+        <v>0.5639818166534708</v>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K3" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1237346612134959</v>
+        <v>0.1260143361049785</v>
       </c>
       <c r="M3" t="n">
-        <v>8.621209410691272</v>
+        <v>8.619956802769384</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4598326440948</v>
+        <v>118.2687890300726</v>
       </c>
       <c r="O3" t="n">
-        <v>10.88392542440892</v>
+        <v>10.87514547167405</v>
       </c>
       <c r="P3" t="n">
-        <v>355.8817469870366</v>
+        <v>355.8366851496718</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27178,28 +27248,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.3948699712080077</v>
+        <v>0.3969861831016669</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08756727586863444</v>
+        <v>0.08889960798921392</v>
       </c>
       <c r="M4" t="n">
-        <v>7.113016635716243</v>
+        <v>7.102213457095544</v>
       </c>
       <c r="N4" t="n">
-        <v>87.43710852127637</v>
+        <v>87.21662293703936</v>
       </c>
       <c r="O4" t="n">
-        <v>9.35078117171375</v>
+        <v>9.338984042016527</v>
       </c>
       <c r="P4" t="n">
-        <v>367.80032311447</v>
+        <v>367.7791360409434</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27256,28 +27326,28 @@
         <v>0.1963</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4677000519399508</v>
+        <v>0.4709447221150933</v>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K5" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1028272857208282</v>
+        <v>0.1046193351749042</v>
       </c>
       <c r="M5" t="n">
-        <v>7.795032349704746</v>
+        <v>7.788575161855823</v>
       </c>
       <c r="N5" t="n">
-        <v>103.9058319120677</v>
+        <v>103.6899689750336</v>
       </c>
       <c r="O5" t="n">
-        <v>10.19342101122424</v>
+        <v>10.18282716022587</v>
       </c>
       <c r="P5" t="n">
-        <v>366.8791953495246</v>
+        <v>366.8470553337297</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27334,28 +27404,28 @@
         <v>0.1622</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4462111365216511</v>
+        <v>0.4492453964378615</v>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K6" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L6" t="n">
-        <v>0.108276661521049</v>
+        <v>0.1100917359304279</v>
       </c>
       <c r="M6" t="n">
-        <v>7.358233577106372</v>
+        <v>7.353559193692042</v>
       </c>
       <c r="N6" t="n">
-        <v>89.95030418861941</v>
+        <v>89.77168636987609</v>
       </c>
       <c r="O6" t="n">
-        <v>9.484213419605203</v>
+        <v>9.474792154442023</v>
       </c>
       <c r="P6" t="n">
-        <v>367.0486515186194</v>
+        <v>367.0184813626265</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27412,28 +27482,28 @@
         <v>0.1854</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4556811843383468</v>
+        <v>0.4605742348967725</v>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K7" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1190679439722933</v>
+        <v>0.1216838276678744</v>
       </c>
       <c r="M7" t="n">
-        <v>7.136080762518123</v>
+        <v>7.137412238509561</v>
       </c>
       <c r="N7" t="n">
-        <v>83.76669173757676</v>
+        <v>83.74425330195713</v>
       </c>
       <c r="O7" t="n">
-        <v>9.152414530471004</v>
+        <v>9.151188627820822</v>
       </c>
       <c r="P7" t="n">
-        <v>366.342529148552</v>
+        <v>366.2936253224808</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27490,28 +27560,28 @@
         <v>0.1985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4051518743296109</v>
+        <v>0.4086147386914813</v>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K8" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09540909597310987</v>
+        <v>0.0973091986270429</v>
       </c>
       <c r="M8" t="n">
-        <v>7.081380653889545</v>
+        <v>7.077557102840839</v>
       </c>
       <c r="N8" t="n">
-        <v>84.23412174447532</v>
+        <v>84.09614478135643</v>
       </c>
       <c r="O8" t="n">
-        <v>9.177914890892993</v>
+        <v>9.170395017738135</v>
       </c>
       <c r="P8" t="n">
-        <v>364.7955888837434</v>
+        <v>364.7608703021922</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27568,28 +27638,28 @@
         <v>0.1491</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3355768252637112</v>
+        <v>0.3412767208933691</v>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K9" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05786633026035992</v>
+        <v>0.05991098830572095</v>
       </c>
       <c r="M9" t="n">
-        <v>7.911362575299516</v>
+        <v>7.914444528557576</v>
       </c>
       <c r="N9" t="n">
-        <v>97.14597818369612</v>
+        <v>97.14922091776924</v>
       </c>
       <c r="O9" t="n">
-        <v>9.856265935114379</v>
+        <v>9.856430434887127</v>
       </c>
       <c r="P9" t="n">
-        <v>366.3600241311632</v>
+        <v>366.3022676321213</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27646,28 +27716,28 @@
         <v>0.1555</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2745297736288048</v>
+        <v>0.2817755959740962</v>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K10" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04155420065889326</v>
+        <v>0.04374504691073289</v>
       </c>
       <c r="M10" t="n">
-        <v>7.621894388993518</v>
+        <v>7.635908685908199</v>
       </c>
       <c r="N10" t="n">
-        <v>92.28190529855473</v>
+        <v>92.45206252294514</v>
       </c>
       <c r="O10" t="n">
-        <v>9.606347136063464</v>
+        <v>9.615199557104633</v>
       </c>
       <c r="P10" t="n">
-        <v>368.1063660092101</v>
+        <v>368.0333755165825</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27724,28 +27794,28 @@
         <v>0.1551</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2435168390121351</v>
+        <v>0.2511143417301868</v>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K11" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0357228223576046</v>
+        <v>0.0379141780513077</v>
       </c>
       <c r="M11" t="n">
-        <v>7.372988122732399</v>
+        <v>7.38639685155301</v>
       </c>
       <c r="N11" t="n">
-        <v>85.86122418575923</v>
+        <v>86.11325435670173</v>
       </c>
       <c r="O11" t="n">
-        <v>9.266133184115111</v>
+        <v>9.279722752146302</v>
       </c>
       <c r="P11" t="n">
-        <v>367.9141532760874</v>
+        <v>367.8379846061827</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27802,28 +27872,28 @@
         <v>0.1518</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2476715981445518</v>
+        <v>0.2522441069705528</v>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K12" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03293865533235796</v>
+        <v>0.0342697697888118</v>
       </c>
       <c r="M12" t="n">
-        <v>7.816045186918866</v>
+        <v>7.815978802475047</v>
       </c>
       <c r="N12" t="n">
-        <v>95.7672183428329</v>
+        <v>95.66553459574176</v>
       </c>
       <c r="O12" t="n">
-        <v>9.78607267205966</v>
+        <v>9.780875962598737</v>
       </c>
       <c r="P12" t="n">
-        <v>362.6568346736119</v>
+        <v>362.610721548695</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27880,28 +27950,28 @@
         <v>0.1478</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2407177208240262</v>
+        <v>0.2461417522406245</v>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K13" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03204983598950029</v>
+        <v>0.03357932914386552</v>
       </c>
       <c r="M13" t="n">
-        <v>7.543472277009376</v>
+        <v>7.547302392602275</v>
       </c>
       <c r="N13" t="n">
-        <v>91.78941124901614</v>
+        <v>91.76579287735433</v>
       </c>
       <c r="O13" t="n">
-        <v>9.580679059910949</v>
+        <v>9.579446376349436</v>
       </c>
       <c r="P13" t="n">
-        <v>358.3979027343717</v>
+        <v>358.3426773157007</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27958,28 +28028,28 @@
         <v>0.194</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1701852543709842</v>
+        <v>0.1788707108011094</v>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K14" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01624156990439152</v>
+        <v>0.01790077664238365</v>
       </c>
       <c r="M14" t="n">
-        <v>7.626825008463266</v>
+        <v>7.643485667083103</v>
       </c>
       <c r="N14" t="n">
-        <v>93.16473352490445</v>
+        <v>93.53093816864639</v>
       </c>
       <c r="O14" t="n">
-        <v>9.652188017486214</v>
+        <v>9.671139445207395</v>
       </c>
       <c r="P14" t="n">
-        <v>352.5572785782755</v>
+        <v>352.4694622527671</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28036,28 +28106,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2471907963922916</v>
+        <v>0.2574325768599182</v>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K15" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03194678401290141</v>
+        <v>0.03446477294069383</v>
       </c>
       <c r="M15" t="n">
-        <v>7.927670381218931</v>
+        <v>7.952879916817042</v>
       </c>
       <c r="N15" t="n">
-        <v>98.71146123820647</v>
+        <v>99.30624853015455</v>
       </c>
       <c r="O15" t="n">
-        <v>9.935364172399845</v>
+        <v>9.965252055525466</v>
       </c>
       <c r="P15" t="n">
-        <v>350.7579954155025</v>
+        <v>350.6542267181924</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28114,28 +28184,28 @@
         <v>0.1614</v>
       </c>
       <c r="I16" t="n">
-        <v>0.22367557175108</v>
+        <v>0.2325556359826363</v>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K16" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02349751920272114</v>
+        <v>0.02535814363609268</v>
       </c>
       <c r="M16" t="n">
-        <v>8.180545405092666</v>
+        <v>8.19379701157191</v>
       </c>
       <c r="N16" t="n">
-        <v>110.8875743997265</v>
+        <v>111.2219627226664</v>
       </c>
       <c r="O16" t="n">
-        <v>10.53031691829484</v>
+        <v>10.54618237670231</v>
       </c>
       <c r="P16" t="n">
-        <v>353.4193395162346</v>
+        <v>353.3291780597939</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28192,28 +28262,28 @@
         <v>0.1281</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1600497660762998</v>
+        <v>0.1728227203077618</v>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K17" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009803168702891885</v>
+        <v>0.01136512948481938</v>
       </c>
       <c r="M17" t="n">
-        <v>9.232937523129264</v>
+        <v>9.268498122100691</v>
       </c>
       <c r="N17" t="n">
-        <v>139.1915798407869</v>
+        <v>140.208408008648</v>
       </c>
       <c r="O17" t="n">
-        <v>11.79794811993962</v>
+        <v>11.8409631368672</v>
       </c>
       <c r="P17" t="n">
-        <v>352.9976363276808</v>
+        <v>352.8683553181426</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28251,7 +28321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R401"/>
+  <dimension ref="A1:R402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61227,6 +61297,98 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>-36.83562329005113,175.80232896786595</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-36.83597977313411,175.80310947761296</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-36.83634049585685,175.80388671630655</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-36.8367081660906,175.80465859602813</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-36.83710405784391,175.80541303723334</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>-36.83749054126881,175.80617634484585</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>-36.8379442414441,175.80687939776203</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>-36.83832714059907,175.80763502746805</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>-36.8386991637457,175.8083941333101</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>-36.83907875694524,175.80915269687137</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>-36.83954097507311,175.80985562908265</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>-36.839953851919255,175.81059432689605</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>-36.84036021162327,175.81134264711892</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>-36.84077900433997,175.8120815666461</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>-36.84124021856263,175.81277054731865</t>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>-36.84163552256101,175.8135171234869</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0180/nzd0180.xlsx
+++ b/data/nzd0180/nzd0180.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R402"/>
+  <dimension ref="A1:R405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22626,6 +22626,186 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>353.9327272727273</v>
+      </c>
+      <c r="C403" t="n">
+        <v>354.64</v>
+      </c>
+      <c r="D403" t="n">
+        <v>367.7628571428572</v>
+      </c>
+      <c r="E403" t="n">
+        <v>370.6641935483871</v>
+      </c>
+      <c r="F403" t="n">
+        <v>375.7625925925926</v>
+      </c>
+      <c r="G403" t="n">
+        <v>373.2541935483871</v>
+      </c>
+      <c r="H403" t="n">
+        <v>377.7625</v>
+      </c>
+      <c r="I403" t="n">
+        <v>374.4825925925926</v>
+      </c>
+      <c r="J403" t="n">
+        <v>380.2128571428572</v>
+      </c>
+      <c r="K403" t="n">
+        <v>379.1325925925926</v>
+      </c>
+      <c r="L403" t="n">
+        <v>378.3584615384616</v>
+      </c>
+      <c r="M403" t="n">
+        <v>370.89</v>
+      </c>
+      <c r="N403" t="n">
+        <v>366.4041935483871</v>
+      </c>
+      <c r="O403" t="n">
+        <v>363.5584848484849</v>
+      </c>
+      <c r="P403" t="n">
+        <v>370.9684615384616</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>367.6804761904762</v>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>369.6690909090909</v>
+      </c>
+      <c r="C404" t="n">
+        <v>377.19</v>
+      </c>
+      <c r="D404" t="n">
+        <v>377.11</v>
+      </c>
+      <c r="E404" t="n">
+        <v>388.7348387096774</v>
+      </c>
+      <c r="F404" t="n">
+        <v>384.8755555555555</v>
+      </c>
+      <c r="G404" t="n">
+        <v>389.1448387096775</v>
+      </c>
+      <c r="H404" t="n">
+        <v>385.5825</v>
+      </c>
+      <c r="I404" t="n">
+        <v>393.1655555555556</v>
+      </c>
+      <c r="J404" t="n">
+        <v>394.24</v>
+      </c>
+      <c r="K404" t="n">
+        <v>397.4855555555556</v>
+      </c>
+      <c r="L404" t="n">
+        <v>388.8853846153846</v>
+      </c>
+      <c r="M404" t="n">
+        <v>385.14</v>
+      </c>
+      <c r="N404" t="n">
+        <v>378.1448387096775</v>
+      </c>
+      <c r="O404" t="n">
+        <v>379.1227272727273</v>
+      </c>
+      <c r="P404" t="n">
+        <v>381.7553846153846</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>375.94</v>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>361.2481818181818</v>
+      </c>
+      <c r="C405" t="n">
+        <v>365.79</v>
+      </c>
+      <c r="D405" t="n">
+        <v>371.5685714285714</v>
+      </c>
+      <c r="E405" t="n">
+        <v>375.6325806451613</v>
+      </c>
+      <c r="F405" t="n">
+        <v>376.3777777777778</v>
+      </c>
+      <c r="G405" t="n">
+        <v>379.1325806451613</v>
+      </c>
+      <c r="H405" t="n">
+        <v>377.6275</v>
+      </c>
+      <c r="I405" t="n">
+        <v>380.5877777777778</v>
+      </c>
+      <c r="J405" t="n">
+        <v>380.7185714285715</v>
+      </c>
+      <c r="K405" t="n">
+        <v>382.4977777777778</v>
+      </c>
+      <c r="L405" t="n">
+        <v>375.7153846153847</v>
+      </c>
+      <c r="M405" t="n">
+        <v>373.02</v>
+      </c>
+      <c r="N405" t="n">
+        <v>364.6225806451613</v>
+      </c>
+      <c r="O405" t="n">
+        <v>368.3854545454545</v>
+      </c>
+      <c r="P405" t="n">
+        <v>371.5953846153847</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>375.1814285714286</v>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22637,7 +22817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B428"/>
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26925,6 +27105,36 @@
       </c>
       <c r="B428" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -27098,28 +27308,28 @@
         <v>0.1384</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3726440715994405</v>
+        <v>0.3665969751443489</v>
       </c>
       <c r="J2" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K2" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0557576870202412</v>
+        <v>0.05482808810926454</v>
       </c>
       <c r="M2" t="n">
-        <v>9.102082807380926</v>
+        <v>9.079132636349883</v>
       </c>
       <c r="N2" t="n">
-        <v>126.3154570137599</v>
+        <v>125.6547669997652</v>
       </c>
       <c r="O2" t="n">
-        <v>11.23901494855131</v>
+        <v>11.20958371215297</v>
       </c>
       <c r="P2" t="n">
-        <v>355.4343325525079</v>
+        <v>355.4960440579715</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27176,28 +27386,28 @@
         <v>0.1533</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5639818166534708</v>
+        <v>0.5559381182738663</v>
       </c>
       <c r="J3" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K3" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1260143361049785</v>
+        <v>0.1240889350609831</v>
       </c>
       <c r="M3" t="n">
-        <v>8.619956802769384</v>
+        <v>8.619727238321232</v>
       </c>
       <c r="N3" t="n">
-        <v>118.2687890300726</v>
+        <v>118.1488732158842</v>
       </c>
       <c r="O3" t="n">
-        <v>10.87514547167405</v>
+        <v>10.86963077642862</v>
       </c>
       <c r="P3" t="n">
-        <v>355.8366851496718</v>
+        <v>355.9183202441816</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27248,28 +27458,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.3969861831016669</v>
+        <v>0.3867587435658383</v>
       </c>
       <c r="J4" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K4" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08889960798921392</v>
+        <v>0.08585275345047616</v>
       </c>
       <c r="M4" t="n">
-        <v>7.102213457095544</v>
+        <v>7.092495756980103</v>
       </c>
       <c r="N4" t="n">
-        <v>87.21662293703936</v>
+        <v>86.87754395695168</v>
       </c>
       <c r="O4" t="n">
-        <v>9.338984042016527</v>
+        <v>9.320812408634328</v>
       </c>
       <c r="P4" t="n">
-        <v>367.7791360409434</v>
+        <v>367.8821347462842</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27326,28 +27536,28 @@
         <v>0.1963</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4709447221150933</v>
+        <v>0.4697536821262065</v>
       </c>
       <c r="J5" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K5" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1046193351749042</v>
+        <v>0.1054580227807552</v>
       </c>
       <c r="M5" t="n">
-        <v>7.788575161855823</v>
+        <v>7.782923046582211</v>
       </c>
       <c r="N5" t="n">
-        <v>103.6899689750336</v>
+        <v>103.2938880713654</v>
       </c>
       <c r="O5" t="n">
-        <v>10.18282716022587</v>
+        <v>10.16336007781705</v>
       </c>
       <c r="P5" t="n">
-        <v>366.8470553337297</v>
+        <v>366.8588964517166</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27404,28 +27614,28 @@
         <v>0.1622</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4492453964378615</v>
+        <v>0.4498401544543779</v>
       </c>
       <c r="J6" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K6" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1100917359304279</v>
+        <v>0.111975504060608</v>
       </c>
       <c r="M6" t="n">
-        <v>7.353559193692042</v>
+        <v>7.322940427010439</v>
       </c>
       <c r="N6" t="n">
-        <v>89.77168636987609</v>
+        <v>89.14429509052223</v>
       </c>
       <c r="O6" t="n">
-        <v>9.474792154442023</v>
+        <v>9.441625659309008</v>
       </c>
       <c r="P6" t="n">
-        <v>367.0184813626265</v>
+        <v>367.0125265645723</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27482,28 +27692,28 @@
         <v>0.1854</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4605742348967725</v>
+        <v>0.4643711781091617</v>
       </c>
       <c r="J7" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K7" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1216838276678744</v>
+        <v>0.1248582826201637</v>
       </c>
       <c r="M7" t="n">
-        <v>7.137412238509561</v>
+        <v>7.121467096570595</v>
       </c>
       <c r="N7" t="n">
-        <v>83.74425330195713</v>
+        <v>83.43886413470121</v>
       </c>
       <c r="O7" t="n">
-        <v>9.151188627820822</v>
+        <v>9.134487622997867</v>
       </c>
       <c r="P7" t="n">
-        <v>366.2936253224808</v>
+        <v>366.255402536385</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27560,28 +27770,28 @@
         <v>0.1985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4086147386914813</v>
+        <v>0.4169926198960793</v>
       </c>
       <c r="J8" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K8" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0973091986270429</v>
+        <v>0.1022384932310261</v>
       </c>
       <c r="M8" t="n">
-        <v>7.077557102840839</v>
+        <v>7.056075876785152</v>
       </c>
       <c r="N8" t="n">
-        <v>84.09614478135643</v>
+        <v>83.6977534258929</v>
       </c>
       <c r="O8" t="n">
-        <v>9.170395017738135</v>
+        <v>9.148647628250467</v>
       </c>
       <c r="P8" t="n">
-        <v>364.7608703021922</v>
+        <v>364.6763510997032</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27638,28 +27848,28 @@
         <v>0.1491</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3412767208933691</v>
+        <v>0.3541577853376668</v>
       </c>
       <c r="J9" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K9" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05991098830572095</v>
+        <v>0.06471005553510811</v>
       </c>
       <c r="M9" t="n">
-        <v>7.914444528557576</v>
+        <v>7.908861966980935</v>
       </c>
       <c r="N9" t="n">
-        <v>97.14922091776924</v>
+        <v>97.31679443739571</v>
       </c>
       <c r="O9" t="n">
-        <v>9.856430434887127</v>
+        <v>9.86492749275917</v>
       </c>
       <c r="P9" t="n">
-        <v>366.3022676321213</v>
+        <v>366.1709212235716</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27716,28 +27926,28 @@
         <v>0.1555</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2817755959740962</v>
+        <v>0.2986717472115766</v>
       </c>
       <c r="J10" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K10" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04374504691073289</v>
+        <v>0.04918048936725983</v>
       </c>
       <c r="M10" t="n">
-        <v>7.635908685908199</v>
+        <v>7.654971714841169</v>
       </c>
       <c r="N10" t="n">
-        <v>92.45206252294514</v>
+        <v>92.81564060970625</v>
       </c>
       <c r="O10" t="n">
-        <v>9.615199557104633</v>
+        <v>9.634087430042674</v>
       </c>
       <c r="P10" t="n">
-        <v>368.0333755165825</v>
+        <v>367.8621514734554</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27794,28 +28004,28 @@
         <v>0.1551</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2511143417301868</v>
+        <v>0.2715621500394427</v>
       </c>
       <c r="J11" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K11" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0379141780513077</v>
+        <v>0.04398120913701553</v>
       </c>
       <c r="M11" t="n">
-        <v>7.38639685155301</v>
+        <v>7.41509139988149</v>
       </c>
       <c r="N11" t="n">
-        <v>86.11325435670173</v>
+        <v>87.13118272920261</v>
       </c>
       <c r="O11" t="n">
-        <v>9.279722752146302</v>
+        <v>9.334408536656332</v>
       </c>
       <c r="P11" t="n">
-        <v>367.8379846061827</v>
+        <v>367.6317191249907</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27872,28 +28082,28 @@
         <v>0.1518</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2522441069705528</v>
+        <v>0.2726548042135354</v>
       </c>
       <c r="J12" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K12" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0342697697888118</v>
+        <v>0.03994351320896405</v>
       </c>
       <c r="M12" t="n">
-        <v>7.815978802475047</v>
+        <v>7.849139494205057</v>
       </c>
       <c r="N12" t="n">
-        <v>95.66553459574176</v>
+        <v>96.30030968660138</v>
       </c>
       <c r="O12" t="n">
-        <v>9.780875962598737</v>
+        <v>9.813272119257745</v>
       </c>
       <c r="P12" t="n">
-        <v>362.610721548695</v>
+        <v>362.4036574700029</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27950,28 +28160,28 @@
         <v>0.1478</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2461417522406245</v>
+        <v>0.2664275580620169</v>
       </c>
       <c r="J13" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K13" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03357932914386552</v>
+        <v>0.0392186079940251</v>
       </c>
       <c r="M13" t="n">
-        <v>7.547302392602275</v>
+        <v>7.576550696606226</v>
       </c>
       <c r="N13" t="n">
-        <v>91.76579287735433</v>
+        <v>92.45529852596455</v>
       </c>
       <c r="O13" t="n">
-        <v>9.579446376349436</v>
+        <v>9.615367831027815</v>
       </c>
       <c r="P13" t="n">
-        <v>358.3426773157007</v>
+        <v>358.1348938275651</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28028,28 +28238,28 @@
         <v>0.194</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1788707108011094</v>
+        <v>0.2007054884870696</v>
       </c>
       <c r="J14" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K14" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01790077664238365</v>
+        <v>0.02245569682999171</v>
       </c>
       <c r="M14" t="n">
-        <v>7.643485667083103</v>
+        <v>7.673207083006443</v>
       </c>
       <c r="N14" t="n">
-        <v>93.53093816864639</v>
+        <v>94.38107554103448</v>
       </c>
       <c r="O14" t="n">
-        <v>9.671139445207395</v>
+        <v>9.714992307821683</v>
       </c>
       <c r="P14" t="n">
-        <v>352.4694622527671</v>
+        <v>352.2473728494155</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28106,28 +28316,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2574325768599182</v>
+        <v>0.2802050017610782</v>
       </c>
       <c r="J15" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K15" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03446477294069383</v>
+        <v>0.040583262694873</v>
       </c>
       <c r="M15" t="n">
-        <v>7.952879916817042</v>
+        <v>7.989219384410215</v>
       </c>
       <c r="N15" t="n">
-        <v>99.30624853015455</v>
+        <v>100.2702038774205</v>
       </c>
       <c r="O15" t="n">
-        <v>9.965252055525466</v>
+        <v>10.01350107991308</v>
       </c>
       <c r="P15" t="n">
-        <v>350.6542267181924</v>
+        <v>350.4220517738497</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28184,28 +28394,28 @@
         <v>0.1614</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2325556359826363</v>
+        <v>0.2596098293985283</v>
       </c>
       <c r="J16" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K16" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02535814363609268</v>
+        <v>0.0313513623292242</v>
       </c>
       <c r="M16" t="n">
-        <v>8.19379701157191</v>
+        <v>8.235758385480386</v>
       </c>
       <c r="N16" t="n">
-        <v>111.2219627226664</v>
+        <v>112.5203534932742</v>
       </c>
       <c r="O16" t="n">
-        <v>10.54618237670231</v>
+        <v>10.60756114727953</v>
       </c>
       <c r="P16" t="n">
-        <v>353.3291780597939</v>
+        <v>353.0527875889953</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28262,28 +28472,28 @@
         <v>0.1281</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1728227203077618</v>
+        <v>0.1995812546642464</v>
       </c>
       <c r="J17" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K17" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01136512948481938</v>
+        <v>0.01513737290115158</v>
       </c>
       <c r="M17" t="n">
-        <v>9.268498122100691</v>
+        <v>9.319597673847202</v>
       </c>
       <c r="N17" t="n">
-        <v>140.208408008648</v>
+        <v>141.1865761970338</v>
       </c>
       <c r="O17" t="n">
-        <v>11.8409631368672</v>
+        <v>11.88219576496843</v>
       </c>
       <c r="P17" t="n">
-        <v>352.8683553181426</v>
+        <v>352.5957715989713</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28321,7 +28531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R402"/>
+  <dimension ref="A1:R405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61389,6 +61599,282 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-36.83577221930971,175.80221412808785</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-36.836156787671136,175.80297298221126</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-36.836446295843864,175.8038051349568</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-36.83681406130112,175.80457694186657</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-36.83716599510124,175.80536381298674</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-36.837592409371155,175.80609207228312</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>-36.83797086019486,175.80685715064692</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>-36.83840624521667,175.80757094988928</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>-36.83875510627798,175.8083513819868</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>-36.83914268669302,175.80910513754444</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>-36.839529556933826,175.809864256955</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>-36.83997608405263,175.81057726319588</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>-36.84040035544937,175.8113090528157</t>
+        </is>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>-36.840856934707254,175.81200742315775</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>-36.841262904704585,175.81274902984737</t>
+        </is>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>-36.841718911287295,175.8134417097562</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-36.83565173675103,175.80230703257337</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-36.83598413724845,175.80310611246554</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-36.83637473073853,175.80386031814749</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-36.83667570547939,175.80468362585276</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-36.837096818240504,175.80541879085672</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-36.83747321683873,175.80619067682449</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>-36.83791238866456,175.80690601929</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>-36.8382652134106,175.8076851906058</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>-36.838647442658896,175.8084336585387</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>-36.83900079968249,175.80921069158217</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>-36.83944851063406,175.80992549777176</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>-36.83986683992869,175.81066111059542</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>-36.840312603204765,175.81138248810205</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>-36.840745567188975,175.8121133789245</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>-36.84118563294683,175.81282232090584</t>
+        </is>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>-36.84165873081979,175.81349613480188</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-36.83571620989233,175.80225731716973</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-36.83607141951811,175.8030388094388</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-36.83641715792193,175.80382760295302</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-36.83677602142349,175.80460627385835</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-36.837161325206964,175.8053675243591</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>-36.83754831678045,175.80612854885234</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>-36.8379718696137,175.80685630700603</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>-36.83836015910606,175.80760828131125</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>-36.838751224730686,175.8083543482703</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>-36.83911667040582,175.80912449188008</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>-36.83954990585802,175.8098488807243</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>-36.83995975493418,175.81058979619038</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>-36.8404136716248,175.81129790918428</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>-36.840822396084526,175.8120402834645</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>-36.84125841376346,175.81275328944008</t>
+        </is>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>-36.84166425791697,175.81349113629875</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0180/nzd0180.xlsx
+++ b/data/nzd0180/nzd0180.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R405"/>
+  <dimension ref="A1:R406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22806,6 +22806,60 @@
         </is>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>350.9127272727272</v>
+      </c>
+      <c r="C406" t="n">
+        <v>360.03</v>
+      </c>
+      <c r="D406" t="n">
+        <v>372.5428571428571</v>
+      </c>
+      <c r="E406" t="n">
+        <v>371.251935483871</v>
+      </c>
+      <c r="F406" t="n">
+        <v>377.3762962962963</v>
+      </c>
+      <c r="G406" t="n">
+        <v>377.841935483871</v>
+      </c>
+      <c r="H406" t="n">
+        <v>383.945</v>
+      </c>
+      <c r="I406" t="n">
+        <v>386.4462962962963</v>
+      </c>
+      <c r="J406" t="n">
+        <v>383.0528571428572</v>
+      </c>
+      <c r="K406" t="n">
+        <v>382.5762962962963</v>
+      </c>
+      <c r="L406" t="n">
+        <v>362.3415384615385</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+      <c r="N406" t="n">
+        <v>347.411935483871</v>
+      </c>
+      <c r="O406" t="n">
+        <v>344.8151515151515</v>
+      </c>
+      <c r="P406" t="inlineStr"/>
+      <c r="Q406" t="inlineStr"/>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22817,7 +22871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27135,6 +27189,16 @@
       </c>
       <c r="B431" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -27308,28 +27372,28 @@
         <v>0.1384</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3665969751443489</v>
+        <v>0.3583436324478779</v>
       </c>
       <c r="J2" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K2" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05482808810926454</v>
+        <v>0.05259170480381037</v>
       </c>
       <c r="M2" t="n">
-        <v>9.079132636349883</v>
+        <v>9.094221527081112</v>
       </c>
       <c r="N2" t="n">
-        <v>125.6547669997652</v>
+        <v>125.8701902041444</v>
       </c>
       <c r="O2" t="n">
-        <v>11.20958371215297</v>
+        <v>11.21918848242351</v>
       </c>
       <c r="P2" t="n">
-        <v>355.4960440579715</v>
+        <v>355.5808577329259</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27386,28 +27450,28 @@
         <v>0.1533</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5559381182738663</v>
+        <v>0.5498278906644263</v>
       </c>
       <c r="J3" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K3" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1240889350609831</v>
+        <v>0.1221014860417953</v>
       </c>
       <c r="M3" t="n">
-        <v>8.619727238321232</v>
+        <v>8.621566770171906</v>
       </c>
       <c r="N3" t="n">
-        <v>118.1488732158842</v>
+        <v>118.113229642904</v>
       </c>
       <c r="O3" t="n">
-        <v>10.86963077642862</v>
+        <v>10.8679910582823</v>
       </c>
       <c r="P3" t="n">
-        <v>355.9183202441816</v>
+        <v>355.9807639117137</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27458,28 +27522,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.3867587435658383</v>
+        <v>0.3836313754204167</v>
       </c>
       <c r="J4" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K4" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08585275345047616</v>
+        <v>0.08500082321683378</v>
       </c>
       <c r="M4" t="n">
-        <v>7.092495756980103</v>
+        <v>7.087671207667676</v>
       </c>
       <c r="N4" t="n">
-        <v>86.87754395695168</v>
+        <v>86.70808741132892</v>
       </c>
       <c r="O4" t="n">
-        <v>9.320812408634328</v>
+        <v>9.311717747619335</v>
       </c>
       <c r="P4" t="n">
-        <v>367.8821347462842</v>
+        <v>367.9138290251321</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27536,28 +27600,28 @@
         <v>0.1963</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4697536821262065</v>
+        <v>0.4652498748180577</v>
       </c>
       <c r="J5" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K5" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1054580227807552</v>
+        <v>0.1040826454153898</v>
       </c>
       <c r="M5" t="n">
-        <v>7.782923046582211</v>
+        <v>7.782606741407861</v>
       </c>
       <c r="N5" t="n">
-        <v>103.2938880713654</v>
+        <v>103.169847780673</v>
       </c>
       <c r="O5" t="n">
-        <v>10.16336007781705</v>
+        <v>10.15725591784873</v>
       </c>
       <c r="P5" t="n">
-        <v>366.8588964517166</v>
+        <v>366.9040586348491</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27614,28 +27678,28 @@
         <v>0.1622</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4498401544543779</v>
+        <v>0.4490921329743309</v>
       </c>
       <c r="J6" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K6" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L6" t="n">
-        <v>0.111975504060608</v>
+        <v>0.1122405907854437</v>
       </c>
       <c r="M6" t="n">
-        <v>7.322940427010439</v>
+        <v>7.305371412622743</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14429509052223</v>
+        <v>88.89253375483156</v>
       </c>
       <c r="O6" t="n">
-        <v>9.441625659309008</v>
+        <v>9.428283712045982</v>
       </c>
       <c r="P6" t="n">
-        <v>367.0125265645723</v>
+        <v>367.020058681905</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27692,28 +27756,28 @@
         <v>0.1854</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4643711781091617</v>
+        <v>0.4640965876537641</v>
       </c>
       <c r="J7" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K7" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1248582826201637</v>
+        <v>0.1253820799223511</v>
       </c>
       <c r="M7" t="n">
-        <v>7.121467096570595</v>
+        <v>7.102776451133399</v>
       </c>
       <c r="N7" t="n">
-        <v>83.43886413470121</v>
+        <v>83.20184314256539</v>
       </c>
       <c r="O7" t="n">
-        <v>9.134487622997867</v>
+        <v>9.121504434169037</v>
       </c>
       <c r="P7" t="n">
-        <v>366.255402536385</v>
+        <v>366.2581816355503</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27770,28 +27834,28 @@
         <v>0.1985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4169926198960793</v>
+        <v>0.421724617683731</v>
       </c>
       <c r="J8" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K8" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1022384932310261</v>
+        <v>0.1046717738037141</v>
       </c>
       <c r="M8" t="n">
-        <v>7.056075876785152</v>
+        <v>7.057883310053811</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6977534258929</v>
+        <v>83.65906806552255</v>
       </c>
       <c r="O8" t="n">
-        <v>9.148647628250467</v>
+        <v>9.146533117281244</v>
       </c>
       <c r="P8" t="n">
-        <v>364.6763510997032</v>
+        <v>364.6283159235401</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27848,28 +27912,28 @@
         <v>0.1491</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3541577853376668</v>
+        <v>0.3604170685473608</v>
       </c>
       <c r="J9" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K9" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06471005553510811</v>
+        <v>0.06702524214071781</v>
       </c>
       <c r="M9" t="n">
-        <v>7.908861966980935</v>
+        <v>7.914895641514229</v>
       </c>
       <c r="N9" t="n">
-        <v>97.31679443739571</v>
+        <v>97.38454354234091</v>
       </c>
       <c r="O9" t="n">
-        <v>9.86492749275917</v>
+        <v>9.86836073227671</v>
       </c>
       <c r="P9" t="n">
-        <v>366.1709212235716</v>
+        <v>366.1067295216599</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27926,28 +27990,28 @@
         <v>0.1555</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2986717472115766</v>
+        <v>0.3029791039191664</v>
       </c>
       <c r="J10" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K10" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04918048936725983</v>
+        <v>0.05075990135942243</v>
       </c>
       <c r="M10" t="n">
-        <v>7.654971714841169</v>
+        <v>7.654482022657874</v>
       </c>
       <c r="N10" t="n">
-        <v>92.81564060970625</v>
+        <v>92.70500984608536</v>
       </c>
       <c r="O10" t="n">
-        <v>9.634087430042674</v>
+        <v>9.628344086398521</v>
       </c>
       <c r="P10" t="n">
-        <v>367.8621514734554</v>
+        <v>367.8182413415705</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28004,28 +28068,28 @@
         <v>0.1551</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2715621500394427</v>
+        <v>0.2760378178886843</v>
       </c>
       <c r="J11" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K11" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04398120913701553</v>
+        <v>0.04555780626615746</v>
       </c>
       <c r="M11" t="n">
-        <v>7.41509139988149</v>
+        <v>7.41414528369743</v>
       </c>
       <c r="N11" t="n">
-        <v>87.13118272920261</v>
+        <v>87.05797722056542</v>
       </c>
       <c r="O11" t="n">
-        <v>9.334408536656332</v>
+        <v>9.330486440725661</v>
       </c>
       <c r="P11" t="n">
-        <v>367.6317191249907</v>
+        <v>367.5863018564957</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28082,28 +28146,28 @@
         <v>0.1518</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2726548042135354</v>
+        <v>0.268531059163024</v>
       </c>
       <c r="J12" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K12" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03994351320896405</v>
+        <v>0.03896825996640707</v>
       </c>
       <c r="M12" t="n">
-        <v>7.849139494205057</v>
+        <v>7.847065148749101</v>
       </c>
       <c r="N12" t="n">
-        <v>96.30030968660138</v>
+        <v>96.16904728109773</v>
       </c>
       <c r="O12" t="n">
-        <v>9.813272119257745</v>
+        <v>9.806581834721909</v>
       </c>
       <c r="P12" t="n">
-        <v>362.4036574700029</v>
+        <v>362.4457469767286</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28163,7 +28227,7 @@
         <v>0.2664275580620169</v>
       </c>
       <c r="J13" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K13" t="n">
         <v>345</v>
@@ -28238,28 +28302,28 @@
         <v>0.194</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2007054884870696</v>
+        <v>0.1948881647703256</v>
       </c>
       <c r="J14" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K14" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02245569682999171</v>
+        <v>0.02126627818337479</v>
       </c>
       <c r="M14" t="n">
-        <v>7.673207083006443</v>
+        <v>7.683272883171945</v>
       </c>
       <c r="N14" t="n">
-        <v>94.38107554103448</v>
+        <v>94.39805114373695</v>
       </c>
       <c r="O14" t="n">
-        <v>9.714992307821683</v>
+        <v>9.715865949246982</v>
       </c>
       <c r="P14" t="n">
-        <v>352.2473728494155</v>
+        <v>352.3069024191609</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28316,28 +28380,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2802050017610782</v>
+        <v>0.2726736923682196</v>
       </c>
       <c r="J15" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K15" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L15" t="n">
-        <v>0.040583262694873</v>
+        <v>0.03856645248003898</v>
       </c>
       <c r="M15" t="n">
-        <v>7.989219384410215</v>
+        <v>8.006318968678611</v>
       </c>
       <c r="N15" t="n">
-        <v>100.2702038774205</v>
+        <v>100.4611994327236</v>
       </c>
       <c r="O15" t="n">
-        <v>10.01350107991308</v>
+        <v>10.02303344465754</v>
       </c>
       <c r="P15" t="n">
-        <v>350.4220517738497</v>
+        <v>350.4992972824155</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28397,7 +28461,7 @@
         <v>0.2596098293985283</v>
       </c>
       <c r="J16" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K16" t="n">
         <v>334</v>
@@ -28475,7 +28539,7 @@
         <v>0.1995812546642464</v>
       </c>
       <c r="J17" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K17" t="n">
         <v>338</v>
@@ -28531,7 +28595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R405"/>
+  <dimension ref="A1:R406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61875,6 +61939,86 @@
         </is>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-36.83579534137419,175.80219629855213</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-36.83611552002082,175.8030048036422</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-36.836409698438324,175.8038333548923</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-36.83680956132372,175.8045804117349</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-36.83715374541448,175.8053735483557</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-36.83755799764918,175.80612054014418</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-36.837924632544635,175.80689578625217</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-36.838315934994505,175.80764410439744</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>-36.83873330820935,175.8083680400949</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>-36.839116063378185,175.80912494346688</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>-36.839652870440744,175.8097710775913</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr"/>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>-36.84054230780983,175.81119025985515</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>-36.840991049605854,175.8118798248804</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr"/>
+      <c r="Q406" t="inlineStr"/>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0180/nzd0180.xlsx
+++ b/data/nzd0180/nzd0180.xlsx
@@ -27363,13 +27363,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0925</v>
+        <v>0.0859</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1384</v>
+        <v>0.1264</v>
       </c>
       <c r="I2" t="n">
         <v>0.3583451686583713</v>
@@ -27441,13 +27441,13 @@
         <v>0.06667657909073146</v>
       </c>
       <c r="F3" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1088</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1533</v>
+        <v>0.1071</v>
       </c>
       <c r="I3" t="n">
         <v>0.5498278906644264</v>
@@ -27518,9 +27518,15 @@
       <c r="E4" t="n">
         <v>0.1333531581814629</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1191</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I4" t="n">
         <v>0.3836498984952477</v>
       </c>
@@ -27591,13 +27597,13 @@
         <v>0.2000297372721944</v>
       </c>
       <c r="F5" t="n">
-        <v>0.155</v>
+        <v>0.115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1315</v>
+        <v>0.0891</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1963</v>
+        <v>0.1596</v>
       </c>
       <c r="I5" t="n">
         <v>0.4652639151813002</v>
@@ -27669,13 +27675,13 @@
         <v>0.2667063163629259</v>
       </c>
       <c r="F6" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1176</v>
+        <v>0.0905</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1622</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.4491012820341632</v>
@@ -27750,10 +27756,10 @@
         <v>0.155</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1296</v>
+        <v>0.1082</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1854</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.4641075923655259</v>
@@ -27825,13 +27831,13 @@
         <v>0.4000509002388576</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1362</v>
+        <v>0.1434</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1985</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>0.4217082208461959</v>
@@ -27903,13 +27909,13 @@
         <v>0.466727479328351</v>
       </c>
       <c r="F9" t="n">
-        <v>0.135</v>
+        <v>0.16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.122</v>
+        <v>0.1144</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1491</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.3604283272752376</v>
@@ -27981,13 +27987,13 @@
         <v>0.5333812277932579</v>
       </c>
       <c r="F10" t="n">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1247</v>
+        <v>0.1041</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1555</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>0.3029940882976261</v>
@@ -28059,13 +28065,13 @@
         <v>0.6000578068824971</v>
       </c>
       <c r="F11" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1214</v>
+        <v>0.114</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1551</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>0.276060138663833</v>
@@ -28137,13 +28143,13 @@
         <v>0.6667343859735156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="G12" t="n">
-        <v>0.114</v>
+        <v>0.1096</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1518</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>0.2685645853091759</v>
@@ -28215,13 +28221,13 @@
         <v>0.7334109116932741</v>
       </c>
       <c r="F13" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.111</v>
+        <v>0.1605</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1478</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
         <v>0.266427558062017</v>
@@ -28293,13 +28299,13 @@
         <v>0.8000874907844036</v>
       </c>
       <c r="F14" t="n">
-        <v>0.155</v>
+        <v>0.18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1268</v>
+        <v>0.1447</v>
       </c>
       <c r="H14" t="n">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>0.1949093440481486</v>
@@ -28371,10 +28377,10 @@
         <v>0.8666522202163218</v>
       </c>
       <c r="F15" t="n">
-        <v>0.165</v>
+        <v>0.155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1316</v>
+        <v>0.1204</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
@@ -28452,10 +28458,10 @@
         <v>0.13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1093</v>
+        <v>0.1089</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1614</v>
+        <v>0.1692</v>
       </c>
       <c r="I16" t="n">
         <v>0.2596305934454086</v>
@@ -28527,13 +28533,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0886</v>
+        <v>0.0814</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1281</v>
+        <v>0.135</v>
       </c>
       <c r="I17" t="n">
         <v>0.1995826268841655</v>
